--- a/fuentes/contenidos/grado10/guion02/SolicitudGrafica_CS_10_02_CO.xlsx
+++ b/fuentes/contenidos/grado10/guion02/SolicitudGrafica_CS_10_02_CO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zambanitos\Documents\MABEL\TRABAJO\PLANETA\JOSE_GUILLERMO\UNIDAD2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zambanitos\Documents\GitHub\CienciasSociales\fuentes\contenidos\grado10\guion02\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="270">
   <si>
     <t>Fecha:</t>
   </si>
@@ -650,15 +650,6 @@
     <t>Mapa con información sobre la formación del Estado de Israel entre 1948-1967. Otra posibilidad es http://www.upaya.es/images/palestina.jpg</t>
   </si>
   <si>
-    <t>http://fatigaexistencial.files.wordpress.com/2013/01/a.png</t>
-  </si>
-  <si>
-    <t>Caricatura crítica sobre el papel de Israel en el conflicto israelí-palestino</t>
-  </si>
-  <si>
-    <t>http://images.teinteresa.es/mundo/Israel-Palestina_TINIMA20140708_1184_21.jpg</t>
-  </si>
-  <si>
     <t>Foto de dos niños, israelí y palestino, abrazados</t>
   </si>
   <si>
@@ -678,6 +669,222 @@
   </si>
   <si>
     <t>Fotos de G. Bush, Bin Laden y Obama. La otra es http://static.icarito.cl/200912/601815_280.jpg</t>
+  </si>
+  <si>
+    <t>Imagen de protestas palestinas</t>
+  </si>
+  <si>
+    <t>F18</t>
+  </si>
+  <si>
+    <t>F19</t>
+  </si>
+  <si>
+    <t>F20</t>
+  </si>
+  <si>
+    <t>F21</t>
+  </si>
+  <si>
+    <t>F22</t>
+  </si>
+  <si>
+    <t>F23</t>
+  </si>
+  <si>
+    <t>F24</t>
+  </si>
+  <si>
+    <t>F25</t>
+  </si>
+  <si>
+    <t>F26</t>
+  </si>
+  <si>
+    <t>F27</t>
+  </si>
+  <si>
+    <t>F28</t>
+  </si>
+  <si>
+    <t>F29</t>
+  </si>
+  <si>
+    <t>F30</t>
+  </si>
+  <si>
+    <t>F31</t>
+  </si>
+  <si>
+    <t>F32</t>
+  </si>
+  <si>
+    <t>F33</t>
+  </si>
+  <si>
+    <t>F34</t>
+  </si>
+  <si>
+    <t>F35</t>
+  </si>
+  <si>
+    <t>F36</t>
+  </si>
+  <si>
+    <t>F37</t>
+  </si>
+  <si>
+    <t>F38</t>
+  </si>
+  <si>
+    <t>F39</t>
+  </si>
+  <si>
+    <t>F40</t>
+  </si>
+  <si>
+    <t>http://thumb101.shutterstock.com/display_pic_with_logo/578401/164099903/stock-photo-seoul-south-korea-skyline-164099903.jpg</t>
+  </si>
+  <si>
+    <t>Foto de Seúl, Corea</t>
+  </si>
+  <si>
+    <t>http://thumb9.shutterstock.com/display_pic_with_logo/296584/196675586/stock-photo-taipei-taiwan-may-entrance-of-raohe-street-night-market-in-taipei-on-may-raohe-196675586.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imagen de comercio en Shutter </t>
+  </si>
+  <si>
+    <t>Tokio, Japón</t>
+  </si>
+  <si>
+    <t>http://thumb7.shutterstock.com/display_pic_with_logo/813493/141285991/stock-photo-tokyo-apr-crowd-at-ginza-sunday-walking-street-on-apr-in-tokyo-japan-ginza-is-141285991.jpg</t>
+  </si>
+  <si>
+    <t>Comercio en Shanghai, China</t>
+  </si>
+  <si>
+    <t>http://thumb9.shutterstock.com/display_pic_with_logo/518803/147718496/stock-photo-shanghai-yuyuan-garden-in-nightfall-china-147718496.jpg</t>
+  </si>
+  <si>
+    <t>Foto de terreno árido en Namibia</t>
+  </si>
+  <si>
+    <t>http://thumb101.shutterstock.com/display_pic_with_logo/1138130/108086723/stock-photo-dead-trees-in-dead-vlei-namibia-108086723.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imagen de guerra en África </t>
+  </si>
+  <si>
+    <t>http://thumb9.shutterstock.com/display_pic_with_logo/8827/8827,1154361467,6/stock-photo-children-playing-on-tank-in-minefield-in-kuito-angola-1618035.jpg</t>
+  </si>
+  <si>
+    <t>Imagen de comercio en África</t>
+  </si>
+  <si>
+    <t>http://thumb9.shutterstock.com/display_pic_with_logo/754048/138477566/stock-photo-monrovia-liberia-february-a-woman-stands-in-front-of-her-roadside-stall-where-she-sells-138477566.jpg</t>
+  </si>
+  <si>
+    <t>Imagen de vida cotidiana en Sudán</t>
+  </si>
+  <si>
+    <t>http://thumb101.shutterstock.com/display_pic_with_logo/9438/251855983/stock-photo-torit-south-sudan-february-unidentified-women-carry-heavy-loads-on-their-heads-in-south-251855983.jpg</t>
+  </si>
+  <si>
+    <t>Imagen de industria en África</t>
+  </si>
+  <si>
+    <t>http://thumb9.shutterstock.com/display_pic_with_logo/754048/259239422/stock-photo-cape-town-south-africa-aug-a-man-cuts-fabric-for-a-new-garment-in-a-large-clothing-factory-in-259239422.jpg</t>
+  </si>
+  <si>
+    <t>Fotos de la Primavera árabe</t>
+  </si>
+  <si>
+    <t>http://thumb7.shutterstock.com/display_pic_with_logo/814174/161912165/stock-photo-azaz-syria-august-a-destroyed-tank-in-front-of-a-similarly-ruined-mosque-161912165.jpg</t>
+  </si>
+  <si>
+    <t>Manifestaciones en Túnez</t>
+  </si>
+  <si>
+    <t>http://thumb7.shutterstock.com/display_pic_with_logo/7880/7880,1295131849,1/stock-photo-nice-january-tunisian-manifestants-rally-the-street-of-the-city-after-the-runaway-of-dictator-69040912.jpg</t>
+  </si>
+  <si>
+    <t>Fotografía de ciudad en Yemen</t>
+  </si>
+  <si>
+    <t>http://thumb9.shutterstock.com/display_pic_with_logo/608500/221795722/stock-photo-sana-yemen-january-people-walking-and-buying-on-the-market-of-old-sana-on-yemen-221795722.jpg</t>
+  </si>
+  <si>
+    <t>Imagen de manifestaciones en Egipto</t>
+  </si>
+  <si>
+    <t>http://thumb1.shutterstock.com/display_pic_with_logo/543709/144436960/stock-photo-sidi-gaber-alexandria-egypt-june-egyptians-protest-against-president-morsy-in-sidi-gaber-144436960.jpg</t>
+  </si>
+  <si>
+    <t>Imagen de mapa de Libia</t>
+  </si>
+  <si>
+    <t>http://thumb1.shutterstock.com/display_pic_with_logo/957307/261961124/stock-photo-red-marker-over-libya-261961124.jpg</t>
+  </si>
+  <si>
+    <t>Fotografía de ciudad en Bahréin</t>
+  </si>
+  <si>
+    <t>http://thumb1.shutterstock.com/display_pic_with_logo/512149/238132960/stock-photo-bird-view-of-manama-city-bahrain-skyline-with-modern-skyscrapers-standing-on-the-coast-of-persian-238132960.jpg</t>
+  </si>
+  <si>
+    <t>Imagen de protestas en Arabia Saudí</t>
+  </si>
+  <si>
+    <t>http://thumb9.shutterstock.com/display_pic_with_logo/646174/646174,1315482313,2/stock-photo-lahore-sept-tehreek-nifaz-e-fiqh-jafariya-chant-slogans-demanding-saudi-arabia-government-to-84265210.jpg</t>
+  </si>
+  <si>
+    <t>Imagen de mercado en Omán</t>
+  </si>
+  <si>
+    <t>http://thumb9.shutterstock.com/display_pic_with_logo/668929/258955682/stock-photo-muttrah-oman-dec-omani-people-at-al-dhalam-souq-in-muttrah-oman-it-s-one-of-the-oldest-258955682.jpg</t>
+  </si>
+  <si>
+    <t>Imagen de bombardeos en Siria</t>
+  </si>
+  <si>
+    <t>http://thumb9.shutterstock.com/display_pic_with_logo/437269/132791996/stock-photo-serekaniye-syria-march-view-of-war-damage-from-serekaniye-syrian-war-plane-bombed-serekaniye-132791996.jpg</t>
+  </si>
+  <si>
+    <t>Infografía alusiva a la Primavera Árabe</t>
+  </si>
+  <si>
+    <t>http://thumb7.shutterstock.com/display_pic_with_logo/252589/252589,1322117277,1/stock-photo-arab-spring-uprising-info-text-cloud-word-composed-in-the-map-shape-of-the-arab-world-comprises-89456296.jpg</t>
+  </si>
+  <si>
+    <t>http://thumb7.shutterstock.com/display_pic_with_logo/11095/11095,1232225655,1/stock-photo-jerusalem-january-demonstration-against-war-in-gaza-strip-on-january-at-old-city-23442967.jpg</t>
+  </si>
+  <si>
+    <t>Imagen de Jerusalén</t>
+  </si>
+  <si>
+    <t>http://thumb101.shutterstock.com/display_pic_with_logo/578401/232686427/stock-photo-jerusalem-israel-old-city-cityscape-232686427.jpg</t>
+  </si>
+  <si>
+    <t>http://thumb101.shutterstock.com/display_pic_with_logo/641824/206173603/stock-vector-muslim-boy-and-jewish-boy-being-friends-206173603.jpg</t>
+  </si>
+  <si>
+    <t>Imagen de palestinos durante ocupaciones israelíes</t>
+  </si>
+  <si>
+    <t>http://thumb7.shutterstock.com/display_pic_with_logo/302563/302563,1268998710,1/stock-photo-bethlehem-palestinian-areas-may-palestinian-residents-of-bethlehem-walk-near-an-israeli-tank-49033645.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imagen de la aridez de Palestina </t>
+  </si>
+  <si>
+    <t>http://thumb101.shutterstock.com/display_pic_with_logo/502231/143685997/stock-photo-view-on-palestinian-city-in-judean-desert-landscape-not-far-from-bethlehem-palestine-israel-143685997.jpg</t>
+  </si>
+  <si>
+    <t>Imagen de bombardeo durante Guerra del Golfo</t>
+  </si>
+  <si>
+    <t>http://thumb9.shutterstock.com/display_pic_with_logo/2733991/244396822/stock-photo-demolished-vehicles-line-highway-the-highway-of-death-were-destroyed-as-iraqi-forces-retreated-244396822.jpg</t>
   </si>
 </sst>
 </file>
@@ -836,7 +1043,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -883,8 +1090,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="36">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1057,21 +1270,6 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -1329,6 +1527,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1384,7 +1619,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1427,9 +1662,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1438,9 +1670,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1448,9 +1677,6 @@
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1477,25 +1703,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1507,34 +1733,34 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1543,6 +1769,15 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1552,46 +1787,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1600,10 +1830,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1612,9 +1845,6 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1623,15 +1853,15 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1657,14 +1887,78 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="51" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="51" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="51" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="51"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="52">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
@@ -2510,11 +2804,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:P108"/>
+  <dimension ref="A1:P131"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
+      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.5"/>
@@ -2542,8 +2836,8 @@
       <c r="D1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
       <c r="J1" s="16"/>
       <c r="K1" s="16"/>
     </row>
@@ -2552,16 +2846,16 @@
       <c r="B2" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="80"/>
-      <c r="F2" s="72" t="s">
+      <c r="D2" s="79"/>
+      <c r="F2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="73"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
       <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:16" ht="15.75">
@@ -2569,16 +2863,16 @@
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="81">
+      <c r="C3" s="80">
         <v>10</v>
       </c>
-      <c r="D3" s="82"/>
-      <c r="F3" s="74">
-        <v>42088</v>
-      </c>
-      <c r="G3" s="75"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
+      <c r="D3" s="81"/>
+      <c r="F3" s="73">
+        <v>42122</v>
+      </c>
+      <c r="G3" s="74"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
       <c r="J3" s="16"/>
     </row>
     <row r="4" spans="1:16" ht="16.5">
@@ -2586,19 +2880,19 @@
       <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="81" t="s">
+      <c r="C4" s="80" t="s">
         <v>145</v>
       </c>
-      <c r="D4" s="82"/>
+      <c r="D4" s="81"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
     </row>
@@ -2607,18 +2901,18 @@
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="83" t="s">
+      <c r="C5" s="82" t="s">
         <v>146</v>
       </c>
-      <c r="D5" s="84"/>
+      <c r="D5" s="83"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="45" t="str">
+      <c r="F5" s="42" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
         <v/>
       </c>
-      <c r="G5" s="45"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="69"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="66"/>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
     </row>
@@ -2630,20 +2924,20 @@
       <c r="E6" s="7"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="29" t="s">
         <v>40</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="28" t="s">
         <v>39</v>
       </c>
       <c r="F7" s="1"/>
@@ -2659,12 +2953,12 @@
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="76" t="s">
+      <c r="F8" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="78"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="77"/>
       <c r="J8" s="18"/>
       <c r="K8" s="12"/>
       <c r="L8" s="2"/>
@@ -2674,87 +2968,73 @@
       <c r="P8" s="2"/>
     </row>
     <row r="9" spans="1:16" ht="26.25" thickBot="1">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="68" t="s">
+      <c r="F9" s="102" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="68" t="s">
+      <c r="G9" s="102" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="68" t="s">
+      <c r="H9" s="102" t="s">
         <v>60</v>
       </c>
-      <c r="I9" s="68" t="s">
+      <c r="I9" s="65" t="s">
         <v>121</v>
       </c>
-      <c r="J9" s="25" t="s">
+      <c r="J9" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="26" t="s">
+      <c r="K9" s="24" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="12" customFormat="1">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:16" s="114" customFormat="1">
+      <c r="A10" s="111" t="s">
         <v>149</v>
       </c>
-      <c r="B10" s="103" t="s">
-        <v>165</v>
-      </c>
-      <c r="C10" s="27" t="str">
-        <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D10" s="14" t="s">
+      <c r="B10" s="112" t="s">
+        <v>222</v>
+      </c>
+      <c r="C10" s="111" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" s="111" t="s">
         <v>167</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="111" t="s">
         <v>168</v>
       </c>
-      <c r="F10" s="14" t="str">
-        <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>CS_10_02_CO_F1_small</v>
-      </c>
-      <c r="G10" s="14" t="str">
-        <f>IF(F10&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H10" s="14" t="str">
-        <f>IF(AND(I10&lt;&gt;"",I10&lt;&gt;0),IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>CS_10_02_CO_F1_zoom</v>
-      </c>
-      <c r="I10" s="14" t="str">
-        <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J10" s="103" t="s">
-        <v>166</v>
-      </c>
-      <c r="K10" s="19"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="113"/>
+      <c r="J10" s="112" t="s">
+        <v>223</v>
+      </c>
+      <c r="K10" s="115"/>
     </row>
     <row r="11" spans="1:16" s="12" customFormat="1" ht="13.9" customHeight="1">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="103" t="s">
         <v>150</v>
       </c>
-      <c r="B11" s="103" t="s">
+      <c r="B11" s="108" t="s">
         <v>169</v>
       </c>
-      <c r="C11" s="27" t="str">
-        <f t="shared" ref="C11:C74" si="0">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+      <c r="C11" s="25" t="str">
+        <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D11" s="14" t="s">
@@ -2764,7 +3044,7 @@
         <v>168</v>
       </c>
       <c r="F11" s="14" t="str">
-        <f t="shared" ref="F11:F74" si="1">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>CS_10_02_CO_F2_small</v>
       </c>
       <c r="G11" s="14" t="str">
@@ -2772,27 +3052,27 @@
         <v>526 x 370 px</v>
       </c>
       <c r="H11" s="14" t="str">
-        <f t="shared" ref="H11:H74" si="2">IF(AND(I11&lt;&gt;"",I11&lt;&gt;0),IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f>IF(AND(I11&lt;&gt;"",I11&lt;&gt;0),IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>CS_10_02_CO_F2_zoom</v>
       </c>
-      <c r="I11" s="14" t="str">
+      <c r="I11" s="104" t="str">
         <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J11" s="103" t="s">
+      <c r="J11" s="69" t="s">
         <v>170</v>
       </c>
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:16" s="12" customFormat="1">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="103" t="s">
         <v>151</v>
       </c>
-      <c r="B12" s="103" t="s">
-        <v>171</v>
-      </c>
-      <c r="C12" s="27" t="str">
-        <f t="shared" si="0"/>
+      <c r="B12" s="108" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12" s="25" t="str">
+        <f>IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D12" s="14" t="s">
@@ -2802,7 +3082,7 @@
         <v>168</v>
       </c>
       <c r="F12" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),CONCATENATE($C$7,"_",$A12,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I12="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>CS_10_02_CO_F3_small</v>
       </c>
       <c r="G12" s="14" t="str">
@@ -2810,65 +3090,52 @@
         <v>526 x 370 px</v>
       </c>
       <c r="H12" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(I12&lt;&gt;"",I12&lt;&gt;0),IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),CONCATENATE($C$7,"_",$A12,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>CS_10_02_CO_F3_zoom</v>
       </c>
-      <c r="I12" s="14" t="str">
+      <c r="I12" s="104" t="str">
         <f>IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J12" s="103" t="s">
-        <v>172</v>
+      <c r="J12" s="69" t="s">
+        <v>166</v>
       </c>
       <c r="K12" s="19"/>
     </row>
     <row r="13" spans="1:16" s="12" customFormat="1">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="103" t="s">
         <v>152</v>
       </c>
-      <c r="B13" s="103" t="s">
-        <v>173</v>
-      </c>
-      <c r="C13" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D13" s="14" t="s">
+      <c r="B13" s="116" t="s">
+        <v>224</v>
+      </c>
+      <c r="C13" s="117" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" s="118" t="s">
         <v>167</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="118" t="s">
         <v>168</v>
       </c>
-      <c r="F13" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>CS_10_02_CO_F4_small</v>
-      </c>
-      <c r="G13" s="14" t="str">
-        <f>IF(F13&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H13" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>CS_10_02_CO_F4_zoom</v>
-      </c>
-      <c r="I13" s="14" t="str">
-        <f>IF(OR(B13&lt;&gt;"",J13&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J13" s="103" t="s">
-        <v>174</v>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="104"/>
+      <c r="J13" s="69" t="s">
+        <v>225</v>
       </c>
       <c r="K13" s="19"/>
     </row>
     <row r="14" spans="1:16" s="12" customFormat="1">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="103" t="s">
         <v>153</v>
       </c>
-      <c r="B14" s="103" t="s">
-        <v>175</v>
-      </c>
-      <c r="C14" s="27" t="str">
-        <f t="shared" si="0"/>
+      <c r="B14" s="108" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" s="25" t="str">
+        <f t="shared" ref="C14:C97" si="0">IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D14" s="14" t="s">
@@ -2878,7 +3145,7 @@
         <v>168</v>
       </c>
       <c r="F14" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F14:F97" si="1">IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),CONCATENATE($C$7,"_",$A14,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I14="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>CS_10_02_CO_F5_small</v>
       </c>
       <c r="G14" s="14" t="str">
@@ -2886,26 +3153,26 @@
         <v>526 x 370 px</v>
       </c>
       <c r="H14" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H14:H97" si="2">IF(AND(I14&lt;&gt;"",I14&lt;&gt;0),IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),CONCATENATE($C$7,"_",$A14,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>CS_10_02_CO_F5_zoom</v>
       </c>
-      <c r="I14" s="14" t="str">
+      <c r="I14" s="104" t="str">
         <f>IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J14" s="103" t="s">
-        <v>176</v>
+      <c r="J14" s="69" t="s">
+        <v>172</v>
       </c>
       <c r="K14" s="19"/>
     </row>
     <row r="15" spans="1:16" s="12" customFormat="1">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="103" t="s">
         <v>154</v>
       </c>
-      <c r="B15" s="103" t="s">
-        <v>177</v>
-      </c>
-      <c r="C15" s="27" t="str">
+      <c r="B15" s="108" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="25" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
@@ -2927,61 +3194,48 @@
         <f t="shared" si="2"/>
         <v>CS_10_02_CO_F6_zoom</v>
       </c>
-      <c r="I15" s="14" t="str">
+      <c r="I15" s="104" t="str">
         <f>IF(OR(B15&lt;&gt;"",J15&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J15" s="103" t="s">
-        <v>178</v>
-      </c>
-      <c r="K15" s="21"/>
-    </row>
-    <row r="16" spans="1:16" s="12" customFormat="1" ht="14.25">
-      <c r="A16" s="13" t="s">
+      <c r="J15" s="69" t="s">
+        <v>174</v>
+      </c>
+      <c r="K15" s="19"/>
+    </row>
+    <row r="16" spans="1:16" s="115" customFormat="1">
+      <c r="A16" s="119" t="s">
         <v>155</v>
       </c>
-      <c r="B16" s="103" t="s">
-        <v>179</v>
-      </c>
-      <c r="C16" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D16" s="14" t="s">
+      <c r="B16" s="112" t="s">
+        <v>227</v>
+      </c>
+      <c r="C16" s="120" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="121" t="s">
         <v>168</v>
       </c>
-      <c r="F16" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>CS_10_02_CO_F7_small</v>
-      </c>
-      <c r="G16" s="14" t="str">
-        <f>IF(F16&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H16" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>CS_10_02_CO_F7_zoom</v>
-      </c>
-      <c r="I16" s="14" t="str">
-        <f>IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J16" s="103" t="s">
-        <v>180</v>
-      </c>
-      <c r="K16" s="29"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
+      <c r="J16" s="112" t="s">
+        <v>226</v>
+      </c>
+      <c r="K16" s="124"/>
     </row>
     <row r="17" spans="1:11" s="12" customFormat="1">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="103" t="s">
         <v>156</v>
       </c>
-      <c r="B17" s="103" t="s">
-        <v>181</v>
-      </c>
-      <c r="C17" s="27" t="str">
+      <c r="B17" s="108" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" s="25" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
@@ -3003,61 +3257,48 @@
         <f t="shared" si="2"/>
         <v>CS_10_02_CO_F8_zoom</v>
       </c>
-      <c r="I17" s="14" t="str">
+      <c r="I17" s="104" t="str">
         <f>IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J17" s="103" t="s">
-        <v>182</v>
-      </c>
-      <c r="K17" s="21"/>
-    </row>
-    <row r="18" spans="1:11" s="12" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A18" s="13" t="s">
+      <c r="J17" s="69" t="s">
+        <v>176</v>
+      </c>
+      <c r="K17" s="19"/>
+    </row>
+    <row r="18" spans="1:11" s="115" customFormat="1">
+      <c r="A18" s="119" t="s">
         <v>157</v>
       </c>
-      <c r="B18" s="104" t="s">
-        <v>183</v>
-      </c>
-      <c r="C18" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D18" s="14" t="s">
+      <c r="B18" s="112" t="s">
+        <v>229</v>
+      </c>
+      <c r="C18" s="120" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="121" t="s">
         <v>168</v>
       </c>
-      <c r="F18" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>CS_10_02_CO_F9_small</v>
-      </c>
-      <c r="G18" s="14" t="str">
-        <f>IF(F18&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H18" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>CS_10_02_CO_F9_zoom</v>
-      </c>
-      <c r="I18" s="14" t="str">
-        <f>IF(OR(B18&lt;&gt;"",J18&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J18" s="105" t="s">
-        <v>184</v>
-      </c>
-      <c r="K18" s="21"/>
-    </row>
-    <row r="19" spans="1:11" s="12" customFormat="1" ht="14.25">
-      <c r="A19" s="13" t="s">
+      <c r="F18" s="122"/>
+      <c r="G18" s="122"/>
+      <c r="H18" s="122"/>
+      <c r="I18" s="123"/>
+      <c r="J18" s="112" t="s">
+        <v>228</v>
+      </c>
+      <c r="K18" s="124"/>
+    </row>
+    <row r="19" spans="1:11" s="12" customFormat="1">
+      <c r="A19" s="103" t="s">
         <v>158</v>
       </c>
-      <c r="B19" s="103" t="s">
-        <v>185</v>
-      </c>
-      <c r="C19" s="27" t="str">
+      <c r="B19" s="108" t="s">
+        <v>177</v>
+      </c>
+      <c r="C19" s="25" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
@@ -3079,23 +3320,23 @@
         <f t="shared" si="2"/>
         <v>CS_10_02_CO_F10_zoom</v>
       </c>
-      <c r="I19" s="14" t="str">
+      <c r="I19" s="104" t="str">
         <f>IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J19" s="103" t="s">
-        <v>186</v>
-      </c>
-      <c r="K19" s="29"/>
-    </row>
-    <row r="20" spans="1:11" s="12" customFormat="1" ht="15.75">
-      <c r="A20" s="13" t="s">
+      <c r="J19" s="69" t="s">
+        <v>178</v>
+      </c>
+      <c r="K19" s="20"/>
+    </row>
+    <row r="20" spans="1:11" s="12" customFormat="1" ht="14.25">
+      <c r="A20" s="103" t="s">
         <v>159</v>
       </c>
-      <c r="B20" s="106" t="s">
-        <v>187</v>
-      </c>
-      <c r="C20" s="27" t="str">
+      <c r="B20" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="C20" s="25" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
@@ -3117,99 +3358,73 @@
         <f t="shared" si="2"/>
         <v>CS_10_02_CO_F11_zoom</v>
       </c>
-      <c r="I20" s="14" t="str">
+      <c r="I20" s="104" t="str">
         <f>IF(OR(B20&lt;&gt;"",J20&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J20" s="103" t="s">
-        <v>188</v>
-      </c>
-      <c r="K20" s="21"/>
-    </row>
-    <row r="21" spans="1:11" s="12" customFormat="1" ht="15">
-      <c r="A21" s="13" t="s">
+      <c r="J20" s="69" t="s">
+        <v>180</v>
+      </c>
+      <c r="K20" s="26"/>
+    </row>
+    <row r="21" spans="1:11" s="115" customFormat="1" ht="14.25">
+      <c r="A21" s="119" t="s">
         <v>160</v>
       </c>
-      <c r="B21" s="104" t="s">
-        <v>189</v>
-      </c>
-      <c r="C21" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D21" s="14" t="s">
+      <c r="B21" s="112" t="s">
+        <v>231</v>
+      </c>
+      <c r="C21" s="120" t="s">
+        <v>147</v>
+      </c>
+      <c r="D21" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="121" t="s">
         <v>168</v>
       </c>
-      <c r="F21" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>CS_10_02_CO_F12_small</v>
-      </c>
-      <c r="G21" s="14" t="str">
-        <f>IF(F21&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H21" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>CS_10_02_CO_F12_zoom</v>
-      </c>
-      <c r="I21" s="14" t="str">
-        <f>IF(OR(B21&lt;&gt;"",J21&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J21" s="103" t="s">
-        <v>190</v>
-      </c>
-      <c r="K21" s="21"/>
-    </row>
-    <row r="22" spans="1:11" s="12" customFormat="1">
-      <c r="A22" s="13" t="s">
+      <c r="F21" s="122"/>
+      <c r="G21" s="122"/>
+      <c r="H21" s="122"/>
+      <c r="I21" s="123"/>
+      <c r="J21" s="112" t="s">
+        <v>230</v>
+      </c>
+      <c r="K21" s="125"/>
+    </row>
+    <row r="22" spans="1:11" s="115" customFormat="1" ht="14.25">
+      <c r="A22" s="119" t="s">
         <v>98</v>
       </c>
-      <c r="B22" s="103" t="s">
-        <v>191</v>
-      </c>
-      <c r="C22" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D22" s="14" t="s">
+      <c r="B22" s="112" t="s">
+        <v>233</v>
+      </c>
+      <c r="C22" s="120" t="s">
+        <v>147</v>
+      </c>
+      <c r="D22" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="121" t="s">
         <v>168</v>
       </c>
-      <c r="F22" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>CS_10_02_CO_F13_small</v>
-      </c>
-      <c r="G22" s="14" t="str">
-        <f>IF(F22&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H22" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>CS_10_02_CO_F13_zoom</v>
-      </c>
-      <c r="I22" s="14" t="str">
-        <f>IF(OR(B22&lt;&gt;"",J22&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J22" s="103" t="s">
-        <v>192</v>
-      </c>
-      <c r="K22" s="20"/>
+      <c r="F22" s="122"/>
+      <c r="G22" s="122"/>
+      <c r="H22" s="122"/>
+      <c r="I22" s="123"/>
+      <c r="J22" s="112" t="s">
+        <v>232</v>
+      </c>
+      <c r="K22" s="125"/>
     </row>
     <row r="23" spans="1:11" s="12" customFormat="1">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="103" t="s">
         <v>161</v>
       </c>
-      <c r="B23" s="103" t="s">
-        <v>193</v>
-      </c>
-      <c r="C23" s="27" t="str">
+      <c r="B23" s="108" t="s">
+        <v>181</v>
+      </c>
+      <c r="C23" s="25" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
@@ -3231,99 +3446,73 @@
         <f t="shared" si="2"/>
         <v>CS_10_02_CO_F14_zoom</v>
       </c>
-      <c r="I23" s="14" t="str">
+      <c r="I23" s="104" t="str">
         <f>IF(OR(B23&lt;&gt;"",J23&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J23" s="103" t="s">
-        <v>194</v>
-      </c>
-      <c r="K23" s="19"/>
-    </row>
-    <row r="24" spans="1:11" s="12" customFormat="1" ht="15">
-      <c r="A24" s="13" t="s">
+      <c r="J23" s="69" t="s">
+        <v>182</v>
+      </c>
+      <c r="K23" s="20"/>
+    </row>
+    <row r="24" spans="1:11" s="115" customFormat="1">
+      <c r="A24" s="119" t="s">
         <v>162</v>
       </c>
-      <c r="B24" s="104" t="s">
-        <v>195</v>
-      </c>
-      <c r="C24" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D24" s="14" t="s">
+      <c r="B24" s="112" t="s">
+        <v>235</v>
+      </c>
+      <c r="C24" s="120" t="s">
+        <v>147</v>
+      </c>
+      <c r="D24" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="121" t="s">
         <v>168</v>
       </c>
-      <c r="F24" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>CS_10_02_CO_F15_small</v>
-      </c>
-      <c r="G24" s="14" t="str">
-        <f>IF(F24&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H24" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>CS_10_02_CO_F15_zoom</v>
-      </c>
-      <c r="I24" s="14" t="str">
-        <f>IF(OR(B24&lt;&gt;"",J24&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J24" s="103" t="s">
-        <v>196</v>
-      </c>
-      <c r="K24" s="15"/>
-    </row>
-    <row r="25" spans="1:11" s="12" customFormat="1">
-      <c r="A25" s="13" t="s">
+      <c r="F24" s="122"/>
+      <c r="G24" s="122"/>
+      <c r="H24" s="122"/>
+      <c r="I24" s="123"/>
+      <c r="J24" s="112" t="s">
+        <v>234</v>
+      </c>
+      <c r="K24" s="126"/>
+    </row>
+    <row r="25" spans="1:11" s="115" customFormat="1">
+      <c r="A25" s="119" t="s">
         <v>163</v>
       </c>
-      <c r="B25" s="103" t="s">
-        <v>197</v>
-      </c>
-      <c r="C25" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D25" s="14" t="s">
+      <c r="B25" s="112" t="s">
+        <v>237</v>
+      </c>
+      <c r="C25" s="120" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="121" t="s">
         <v>168</v>
       </c>
-      <c r="F25" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>CS_10_02_CO_F16_small</v>
-      </c>
-      <c r="G25" s="14" t="str">
-        <f>IF(F25&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H25" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>CS_10_02_CO_F16_zoom</v>
-      </c>
-      <c r="I25" s="14" t="str">
-        <f>IF(OR(B25&lt;&gt;"",J25&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J25" s="103" t="s">
-        <v>198</v>
-      </c>
-      <c r="K25" s="19"/>
-    </row>
-    <row r="26" spans="1:11" s="12" customFormat="1" ht="15">
-      <c r="A26" s="13" t="s">
+      <c r="F25" s="122"/>
+      <c r="G25" s="122"/>
+      <c r="H25" s="122"/>
+      <c r="I25" s="123"/>
+      <c r="J25" s="112" t="s">
+        <v>236</v>
+      </c>
+      <c r="K25" s="126"/>
+    </row>
+    <row r="26" spans="1:11" s="12" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A26" s="103" t="s">
         <v>164</v>
       </c>
-      <c r="B26" s="104" t="s">
-        <v>199</v>
-      </c>
-      <c r="C26" s="27" t="str">
+      <c r="B26" s="109" t="s">
+        <v>183</v>
+      </c>
+      <c r="C26" s="25" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
@@ -3345,800 +3534,766 @@
         <f t="shared" si="2"/>
         <v>CS_10_02_CO_F17_zoom</v>
       </c>
-      <c r="I26" s="14" t="str">
+      <c r="I26" s="104" t="str">
         <f>IF(OR(B26&lt;&gt;"",J26&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J26" s="103" t="s">
+      <c r="J26" s="70" t="s">
+        <v>184</v>
+      </c>
+      <c r="K26" s="20"/>
+    </row>
+    <row r="27" spans="1:11" s="12" customFormat="1" ht="14.25">
+      <c r="A27" s="103" t="s">
+        <v>199</v>
+      </c>
+      <c r="B27" s="108" t="s">
+        <v>185</v>
+      </c>
+      <c r="C27" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="F27" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>CS_10_02_CO_F18_small</v>
+      </c>
+      <c r="G27" s="14" t="str">
+        <f>IF(F27&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v>526 x 370 px</v>
+      </c>
+      <c r="H27" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>CS_10_02_CO_F18_zoom</v>
+      </c>
+      <c r="I27" s="104" t="str">
+        <f>IF(OR(B27&lt;&gt;"",J27&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J27" s="69" t="s">
+        <v>186</v>
+      </c>
+      <c r="K27" s="26"/>
+    </row>
+    <row r="28" spans="1:11" s="115" customFormat="1" ht="14.25">
+      <c r="A28" s="119" t="s">
         <v>200</v>
       </c>
-      <c r="K26" s="19"/>
-    </row>
-    <row r="27" spans="1:11" s="12" customFormat="1">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-    </row>
-    <row r="28" spans="1:11" s="12" customFormat="1">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-    </row>
-    <row r="29" spans="1:11" s="12" customFormat="1">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-    </row>
-    <row r="30" spans="1:11" s="12" customFormat="1">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-    </row>
-    <row r="31" spans="1:11" s="12" customFormat="1">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-    </row>
-    <row r="32" spans="1:11" s="12" customFormat="1">
-      <c r="A32" s="13" t="str">
-        <f t="shared" ref="A20:A83" si="3">IF(OR(B32&lt;&gt;"",J32&lt;&gt;""),CONCATENATE(LEFT(A31,3),IF(MID(A31,4,2)+1&lt;10,CONCATENATE("0",MID(A31,4,2)+1),MID(A31,4,2)+1)),"")</f>
-        <v/>
-      </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="27" t="str">
+      <c r="B28" s="112" t="s">
+        <v>239</v>
+      </c>
+      <c r="C28" s="120" t="s">
+        <v>147</v>
+      </c>
+      <c r="D28" s="121" t="s">
+        <v>167</v>
+      </c>
+      <c r="E28" s="121" t="s">
+        <v>168</v>
+      </c>
+      <c r="F28" s="122"/>
+      <c r="G28" s="122"/>
+      <c r="H28" s="122"/>
+      <c r="I28" s="123"/>
+      <c r="J28" s="112" t="s">
+        <v>238</v>
+      </c>
+      <c r="K28" s="125"/>
+    </row>
+    <row r="29" spans="1:11" s="115" customFormat="1" ht="14.25">
+      <c r="A29" s="119" t="s">
+        <v>201</v>
+      </c>
+      <c r="B29" s="112" t="s">
+        <v>241</v>
+      </c>
+      <c r="C29" s="120" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29" s="121" t="s">
+        <v>167</v>
+      </c>
+      <c r="E29" s="121" t="s">
+        <v>168</v>
+      </c>
+      <c r="F29" s="122"/>
+      <c r="G29" s="122"/>
+      <c r="H29" s="122"/>
+      <c r="I29" s="123"/>
+      <c r="J29" s="112" t="s">
+        <v>240</v>
+      </c>
+      <c r="K29" s="125"/>
+    </row>
+    <row r="30" spans="1:11" s="12" customFormat="1" ht="15.75">
+      <c r="A30" s="103" t="s">
+        <v>202</v>
+      </c>
+      <c r="B30" s="110" t="s">
+        <v>187</v>
+      </c>
+      <c r="C30" s="25" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14" t="str">
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="F30" s="14" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G32" s="14" t="str">
-        <f>IF(F32&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H32" s="14" t="str">
+        <v>CS_10_02_CO_F21_small</v>
+      </c>
+      <c r="G30" s="14" t="str">
+        <f>IF(F30&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v>526 x 370 px</v>
+      </c>
+      <c r="H30" s="14" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I32" s="14" t="str">
-        <f>IF(OR(B32&lt;&gt;"",J32&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-    </row>
-    <row r="33" spans="1:11" s="12" customFormat="1">
-      <c r="A33" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="27" t="str">
+        <v>CS_10_02_CO_F21_zoom</v>
+      </c>
+      <c r="I30" s="104" t="str">
+        <f>IF(OR(B30&lt;&gt;"",J30&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J30" s="69" t="s">
+        <v>188</v>
+      </c>
+      <c r="K30" s="20"/>
+    </row>
+    <row r="31" spans="1:11" s="115" customFormat="1">
+      <c r="A31" s="119" t="s">
+        <v>203</v>
+      </c>
+      <c r="B31" s="112" t="s">
+        <v>243</v>
+      </c>
+      <c r="C31" s="120" t="s">
+        <v>147</v>
+      </c>
+      <c r="D31" s="121" t="s">
+        <v>167</v>
+      </c>
+      <c r="E31" s="121" t="s">
+        <v>168</v>
+      </c>
+      <c r="F31" s="122"/>
+      <c r="G31" s="122"/>
+      <c r="H31" s="122"/>
+      <c r="I31" s="123"/>
+      <c r="J31" s="112" t="s">
+        <v>242</v>
+      </c>
+      <c r="K31" s="126"/>
+    </row>
+    <row r="32" spans="1:11" s="115" customFormat="1">
+      <c r="A32" s="119" t="s">
+        <v>204</v>
+      </c>
+      <c r="B32" s="112" t="s">
+        <v>245</v>
+      </c>
+      <c r="C32" s="120" t="s">
+        <v>147</v>
+      </c>
+      <c r="D32" s="121" t="s">
+        <v>167</v>
+      </c>
+      <c r="E32" s="121" t="s">
+        <v>168</v>
+      </c>
+      <c r="F32" s="122"/>
+      <c r="G32" s="122"/>
+      <c r="H32" s="122"/>
+      <c r="I32" s="123"/>
+      <c r="J32" s="112" t="s">
+        <v>244</v>
+      </c>
+      <c r="K32" s="126"/>
+    </row>
+    <row r="33" spans="1:11" s="115" customFormat="1">
+      <c r="A33" s="119" t="s">
+        <v>205</v>
+      </c>
+      <c r="B33" s="112" t="s">
+        <v>247</v>
+      </c>
+      <c r="C33" s="120" t="s">
+        <v>147</v>
+      </c>
+      <c r="D33" s="121" t="s">
+        <v>167</v>
+      </c>
+      <c r="E33" s="121" t="s">
+        <v>168</v>
+      </c>
+      <c r="F33" s="122"/>
+      <c r="G33" s="122"/>
+      <c r="H33" s="122"/>
+      <c r="I33" s="123"/>
+      <c r="J33" s="112" t="s">
+        <v>246</v>
+      </c>
+      <c r="K33" s="126"/>
+    </row>
+    <row r="34" spans="1:11" s="115" customFormat="1">
+      <c r="A34" s="119" t="s">
+        <v>206</v>
+      </c>
+      <c r="B34" s="112" t="s">
+        <v>249</v>
+      </c>
+      <c r="C34" s="120" t="s">
+        <v>147</v>
+      </c>
+      <c r="D34" s="121" t="s">
+        <v>167</v>
+      </c>
+      <c r="E34" s="121" t="s">
+        <v>168</v>
+      </c>
+      <c r="F34" s="122"/>
+      <c r="G34" s="122"/>
+      <c r="H34" s="122"/>
+      <c r="I34" s="123"/>
+      <c r="J34" s="112" t="s">
+        <v>248</v>
+      </c>
+      <c r="K34" s="126"/>
+    </row>
+    <row r="35" spans="1:11" s="115" customFormat="1">
+      <c r="A35" s="119" t="s">
+        <v>207</v>
+      </c>
+      <c r="B35" s="112" t="s">
+        <v>251</v>
+      </c>
+      <c r="C35" s="120" t="s">
+        <v>147</v>
+      </c>
+      <c r="D35" s="121" t="s">
+        <v>167</v>
+      </c>
+      <c r="E35" s="121" t="s">
+        <v>168</v>
+      </c>
+      <c r="F35" s="122"/>
+      <c r="G35" s="122"/>
+      <c r="H35" s="122"/>
+      <c r="I35" s="123"/>
+      <c r="J35" s="112" t="s">
+        <v>250</v>
+      </c>
+      <c r="K35" s="126"/>
+    </row>
+    <row r="36" spans="1:11" s="115" customFormat="1">
+      <c r="A36" s="119" t="s">
+        <v>208</v>
+      </c>
+      <c r="B36" s="112" t="s">
+        <v>253</v>
+      </c>
+      <c r="C36" s="120" t="s">
+        <v>147</v>
+      </c>
+      <c r="D36" s="121" t="s">
+        <v>167</v>
+      </c>
+      <c r="E36" s="121" t="s">
+        <v>168</v>
+      </c>
+      <c r="F36" s="122"/>
+      <c r="G36" s="122"/>
+      <c r="H36" s="122"/>
+      <c r="I36" s="123"/>
+      <c r="J36" s="112" t="s">
+        <v>252</v>
+      </c>
+      <c r="K36" s="126"/>
+    </row>
+    <row r="37" spans="1:11" s="115" customFormat="1">
+      <c r="A37" s="119" t="s">
+        <v>209</v>
+      </c>
+      <c r="B37" s="112" t="s">
+        <v>255</v>
+      </c>
+      <c r="C37" s="120" t="s">
+        <v>147</v>
+      </c>
+      <c r="D37" s="121" t="s">
+        <v>167</v>
+      </c>
+      <c r="E37" s="121" t="s">
+        <v>168</v>
+      </c>
+      <c r="F37" s="122"/>
+      <c r="G37" s="122"/>
+      <c r="H37" s="122"/>
+      <c r="I37" s="123"/>
+      <c r="J37" s="112" t="s">
+        <v>254</v>
+      </c>
+      <c r="K37" s="126"/>
+    </row>
+    <row r="38" spans="1:11" s="115" customFormat="1">
+      <c r="A38" s="119" t="s">
+        <v>210</v>
+      </c>
+      <c r="B38" s="112" t="s">
+        <v>257</v>
+      </c>
+      <c r="C38" s="120" t="s">
+        <v>147</v>
+      </c>
+      <c r="D38" s="121" t="s">
+        <v>167</v>
+      </c>
+      <c r="E38" s="121" t="s">
+        <v>168</v>
+      </c>
+      <c r="F38" s="122"/>
+      <c r="G38" s="122"/>
+      <c r="H38" s="122"/>
+      <c r="I38" s="123"/>
+      <c r="J38" s="112" t="s">
+        <v>256</v>
+      </c>
+      <c r="K38" s="126"/>
+    </row>
+    <row r="39" spans="1:11" s="115" customFormat="1">
+      <c r="A39" s="119" t="s">
+        <v>211</v>
+      </c>
+      <c r="B39" s="112" t="s">
+        <v>259</v>
+      </c>
+      <c r="C39" s="120" t="s">
+        <v>147</v>
+      </c>
+      <c r="D39" s="121" t="s">
+        <v>167</v>
+      </c>
+      <c r="E39" s="121" t="s">
+        <v>168</v>
+      </c>
+      <c r="F39" s="122"/>
+      <c r="G39" s="122"/>
+      <c r="H39" s="122"/>
+      <c r="I39" s="123"/>
+      <c r="J39" s="112" t="s">
+        <v>258</v>
+      </c>
+      <c r="K39" s="126"/>
+    </row>
+    <row r="40" spans="1:11" s="12" customFormat="1" ht="15">
+      <c r="A40" s="103" t="s">
+        <v>212</v>
+      </c>
+      <c r="B40" s="109" t="s">
+        <v>189</v>
+      </c>
+      <c r="C40" s="25" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G33" s="14" t="str">
-        <f>IF(F33&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H33" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I33" s="14" t="str">
-        <f>IF(OR(B33&lt;&gt;"",J33&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-    </row>
-    <row r="34" spans="1:11" s="12" customFormat="1">
-      <c r="A34" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G34" s="14" t="str">
-        <f>IF(F34&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H34" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I34" s="14" t="str">
-        <f>IF(OR(B34&lt;&gt;"",J34&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-    </row>
-    <row r="35" spans="1:11" s="12" customFormat="1">
-      <c r="A35" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G35" s="14" t="str">
-        <f>IF(F35&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H35" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I35" s="14" t="str">
-        <f>IF(OR(B35&lt;&gt;"",J35&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J35" s="14"/>
-      <c r="K35" s="15"/>
-    </row>
-    <row r="36" spans="1:11" s="12" customFormat="1">
-      <c r="A36" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G36" s="14" t="str">
-        <f>IF(F36&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H36" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I36" s="14" t="str">
-        <f>IF(OR(B36&lt;&gt;"",J36&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J36" s="14"/>
-      <c r="K36" s="15"/>
-    </row>
-    <row r="37" spans="1:11" s="12" customFormat="1">
-      <c r="A37" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G37" s="14" t="str">
-        <f>IF(F37&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H37" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I37" s="14" t="str">
-        <f>IF(OR(B37&lt;&gt;"",J37&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J37" s="22"/>
-      <c r="K37" s="15"/>
-    </row>
-    <row r="38" spans="1:11" s="12" customFormat="1">
-      <c r="A38" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G38" s="14" t="str">
-        <f>IF(F38&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H38" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I38" s="14" t="str">
-        <f>IF(OR(B38&lt;&gt;"",J38&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J38" s="23"/>
-      <c r="K38" s="15"/>
-    </row>
-    <row r="39" spans="1:11" s="12" customFormat="1">
-      <c r="A39" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G39" s="14" t="str">
-        <f>IF(F39&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H39" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I39" s="14" t="str">
-        <f>IF(OR(B39&lt;&gt;"",J39&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J39" s="14"/>
-      <c r="K39" s="15"/>
-    </row>
-    <row r="40" spans="1:11" s="12" customFormat="1">
-      <c r="A40" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>168</v>
+      </c>
       <c r="F40" s="14" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>CS_10_02_CO_F31_small</v>
       </c>
       <c r="G40" s="14" t="str">
         <f>IF(F40&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H40" s="14" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I40" s="14" t="str">
+        <v>CS_10_02_CO_F31_zoom</v>
+      </c>
+      <c r="I40" s="104" t="str">
         <f>IF(OR(B40&lt;&gt;"",J40&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J40" s="14"/>
-      <c r="K40" s="15"/>
-    </row>
-    <row r="41" spans="1:11" s="12" customFormat="1">
-      <c r="A41" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="27" t="str">
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J40" s="69" t="s">
+        <v>190</v>
+      </c>
+      <c r="K40" s="20"/>
+    </row>
+    <row r="41" spans="1:11" s="115" customFormat="1">
+      <c r="A41" s="119" t="s">
+        <v>213</v>
+      </c>
+      <c r="B41" s="112" t="s">
+        <v>260</v>
+      </c>
+      <c r="C41" s="127" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14" t="str">
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D41" s="122" t="s">
+        <v>167</v>
+      </c>
+      <c r="E41" s="122" t="s">
+        <v>168</v>
+      </c>
+      <c r="F41" s="122" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G41" s="14" t="str">
+        <v>CS_10_02_CO_F32_small</v>
+      </c>
+      <c r="G41" s="122" t="str">
         <f>IF(F41&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H41" s="14" t="str">
+        <v>526 x 370 px</v>
+      </c>
+      <c r="H41" s="122" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I41" s="14" t="str">
+        <v>CS_10_02_CO_F32_zoom</v>
+      </c>
+      <c r="I41" s="123" t="str">
         <f>IF(OR(B41&lt;&gt;"",J41&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J41" s="14"/>
-      <c r="K41" s="15"/>
-    </row>
-    <row r="42" spans="1:11" s="12" customFormat="1">
-      <c r="A42" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B42" s="13"/>
-      <c r="C42" s="27" t="str">
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J41" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="K41" s="128"/>
+    </row>
+    <row r="42" spans="1:11" s="115" customFormat="1">
+      <c r="A42" s="119" t="s">
+        <v>214</v>
+      </c>
+      <c r="B42" s="112" t="s">
+        <v>262</v>
+      </c>
+      <c r="C42" s="120" t="s">
+        <v>147</v>
+      </c>
+      <c r="D42" s="121" t="s">
+        <v>167</v>
+      </c>
+      <c r="E42" s="121" t="s">
+        <v>168</v>
+      </c>
+      <c r="F42" s="122"/>
+      <c r="G42" s="122"/>
+      <c r="H42" s="122"/>
+      <c r="I42" s="123"/>
+      <c r="J42" s="112" t="s">
+        <v>261</v>
+      </c>
+      <c r="K42" s="128"/>
+    </row>
+    <row r="43" spans="1:11" s="115" customFormat="1">
+      <c r="A43" s="119" t="s">
+        <v>215</v>
+      </c>
+      <c r="B43" s="112" t="s">
+        <v>263</v>
+      </c>
+      <c r="C43" s="127" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14" t="str">
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D43" s="122" t="s">
+        <v>167</v>
+      </c>
+      <c r="E43" s="122" t="s">
+        <v>168</v>
+      </c>
+      <c r="F43" s="122" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G42" s="14" t="str">
-        <f>IF(F42&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H42" s="14" t="str">
+        <v>CS_10_02_CO_F34_small</v>
+      </c>
+      <c r="G43" s="122" t="str">
+        <f>IF(F43&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v>526 x 370 px</v>
+      </c>
+      <c r="H43" s="122" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I42" s="14" t="str">
-        <f>IF(OR(B42&lt;&gt;"",J42&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J42" s="14"/>
-      <c r="K42" s="15"/>
-    </row>
-    <row r="43" spans="1:11" s="12" customFormat="1">
-      <c r="A43" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B43" s="13"/>
-      <c r="C43" s="27" t="str">
+        <v>CS_10_02_CO_F34_zoom</v>
+      </c>
+      <c r="I43" s="123" t="str">
+        <f>IF(OR(B43&lt;&gt;"",J43&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J43" s="112" t="s">
+        <v>191</v>
+      </c>
+      <c r="K43" s="124"/>
+    </row>
+    <row r="44" spans="1:11" s="12" customFormat="1">
+      <c r="A44" s="103" t="s">
+        <v>216</v>
+      </c>
+      <c r="B44" s="69" t="s">
+        <v>265</v>
+      </c>
+      <c r="C44" s="117" t="s">
+        <v>147</v>
+      </c>
+      <c r="D44" s="118" t="s">
+        <v>167</v>
+      </c>
+      <c r="E44" s="118" t="s">
+        <v>168</v>
+      </c>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="104"/>
+      <c r="J44" s="69" t="s">
+        <v>264</v>
+      </c>
+      <c r="K44" s="19"/>
+    </row>
+    <row r="45" spans="1:11" s="115" customFormat="1">
+      <c r="A45" s="119" t="s">
+        <v>217</v>
+      </c>
+      <c r="B45" s="112" t="s">
+        <v>267</v>
+      </c>
+      <c r="C45" s="120" t="s">
+        <v>147</v>
+      </c>
+      <c r="D45" s="121" t="s">
+        <v>167</v>
+      </c>
+      <c r="E45" s="121" t="s">
+        <v>168</v>
+      </c>
+      <c r="F45" s="122"/>
+      <c r="G45" s="122"/>
+      <c r="H45" s="122"/>
+      <c r="I45" s="123"/>
+      <c r="J45" s="112" t="s">
+        <v>266</v>
+      </c>
+      <c r="K45" s="124"/>
+    </row>
+    <row r="46" spans="1:11" s="12" customFormat="1" ht="15">
+      <c r="A46" s="103" t="s">
+        <v>218</v>
+      </c>
+      <c r="B46" s="109" t="s">
+        <v>192</v>
+      </c>
+      <c r="C46" s="25" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G43" s="14" t="str">
-        <f>IF(F43&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H43" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I43" s="14" t="str">
-        <f>IF(OR(B43&lt;&gt;"",J43&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J43" s="14"/>
-      <c r="K43" s="15"/>
-    </row>
-    <row r="44" spans="1:11" s="12" customFormat="1">
-      <c r="A44" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B44" s="13"/>
-      <c r="C44" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G44" s="14" t="str">
-        <f>IF(F44&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H44" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I44" s="14" t="str">
-        <f>IF(OR(B44&lt;&gt;"",J44&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J44" s="14"/>
-      <c r="K44" s="15"/>
-    </row>
-    <row r="45" spans="1:11" s="12" customFormat="1">
-      <c r="A45" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B45" s="13"/>
-      <c r="C45" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G45" s="14" t="str">
-        <f>IF(F45&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H45" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I45" s="14" t="str">
-        <f>IF(OR(B45&lt;&gt;"",J45&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J45" s="14"/>
-      <c r="K45" s="15"/>
-    </row>
-    <row r="46" spans="1:11" s="12" customFormat="1">
-      <c r="A46" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B46" s="13"/>
-      <c r="C46" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>168</v>
+      </c>
       <c r="F46" s="14" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>CS_10_02_CO_F37_small</v>
       </c>
       <c r="G46" s="14" t="str">
         <f>IF(F46&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H46" s="14" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I46" s="14" t="str">
+        <v>CS_10_02_CO_F37_zoom</v>
+      </c>
+      <c r="I46" s="104" t="str">
         <f>IF(OR(B46&lt;&gt;"",J46&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J46" s="14"/>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J46" s="69" t="s">
+        <v>193</v>
+      </c>
       <c r="K46" s="15"/>
     </row>
-    <row r="47" spans="1:11" s="12" customFormat="1">
-      <c r="A47" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B47" s="13"/>
-      <c r="C47" s="27" t="str">
+    <row r="47" spans="1:11" s="115" customFormat="1">
+      <c r="A47" s="119" t="s">
+        <v>219</v>
+      </c>
+      <c r="B47" s="112" t="s">
+        <v>269</v>
+      </c>
+      <c r="C47" s="120" t="s">
+        <v>147</v>
+      </c>
+      <c r="D47" s="121" t="s">
+        <v>167</v>
+      </c>
+      <c r="E47" s="121" t="s">
+        <v>168</v>
+      </c>
+      <c r="F47" s="122"/>
+      <c r="G47" s="122"/>
+      <c r="H47" s="122"/>
+      <c r="I47" s="123"/>
+      <c r="J47" s="112" t="s">
+        <v>268</v>
+      </c>
+      <c r="K47" s="129"/>
+    </row>
+    <row r="48" spans="1:11" s="12" customFormat="1">
+      <c r="A48" s="103" t="s">
+        <v>220</v>
+      </c>
+      <c r="B48" s="108" t="s">
+        <v>194</v>
+      </c>
+      <c r="C48" s="25" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G47" s="14" t="str">
-        <f>IF(F47&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H47" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I47" s="14" t="str">
-        <f>IF(OR(B47&lt;&gt;"",J47&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J47" s="14"/>
-      <c r="K47" s="15"/>
-    </row>
-    <row r="48" spans="1:11" s="12" customFormat="1">
-      <c r="A48" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B48" s="13"/>
-      <c r="C48" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>168</v>
+      </c>
       <c r="F48" s="14" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>CS_10_02_CO_F39_small</v>
       </c>
       <c r="G48" s="14" t="str">
         <f>IF(F48&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H48" s="14" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I48" s="14" t="str">
+        <v>CS_10_02_CO_F39_zoom</v>
+      </c>
+      <c r="I48" s="104" t="str">
         <f>IF(OR(B48&lt;&gt;"",J48&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J48" s="14"/>
-      <c r="K48" s="15"/>
-    </row>
-    <row r="49" spans="1:11" s="12" customFormat="1">
-      <c r="A49" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B49" s="13"/>
-      <c r="C49" s="27" t="str">
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J48" s="69" t="s">
+        <v>195</v>
+      </c>
+      <c r="K48" s="19"/>
+    </row>
+    <row r="49" spans="1:11" s="12" customFormat="1" ht="15">
+      <c r="A49" s="103" t="s">
+        <v>221</v>
+      </c>
+      <c r="B49" s="109" t="s">
+        <v>196</v>
+      </c>
+      <c r="C49" s="25" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>168</v>
+      </c>
       <c r="F49" s="14" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>CS_10_02_CO_F40_small</v>
       </c>
       <c r="G49" s="14" t="str">
         <f>IF(F49&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H49" s="14" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I49" s="14" t="str">
+        <v>CS_10_02_CO_F40_zoom</v>
+      </c>
+      <c r="I49" s="104" t="str">
         <f>IF(OR(B49&lt;&gt;"",J49&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J49" s="14"/>
-      <c r="K49" s="15"/>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J49" s="69" t="s">
+        <v>197</v>
+      </c>
+      <c r="K49" s="19"/>
     </row>
     <row r="50" spans="1:11" s="12" customFormat="1">
-      <c r="A50" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="A50" s="13"/>
       <c r="B50" s="13"/>
-      <c r="C50" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="C50" s="25"/>
       <c r="D50" s="14"/>
       <c r="E50" s="14"/>
-      <c r="F50" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G50" s="14" t="str">
-        <f>IF(F50&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H50" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I50" s="14" t="str">
-        <f>IF(OR(B50&lt;&gt;"",J50&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J50" s="14"/>
-      <c r="K50" s="15"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="104"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
     </row>
     <row r="51" spans="1:11" s="12" customFormat="1">
-      <c r="A51" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="A51" s="13"/>
       <c r="B51" s="13"/>
-      <c r="C51" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="C51" s="25"/>
       <c r="D51" s="14"/>
       <c r="E51" s="14"/>
-      <c r="F51" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G51" s="14" t="str">
-        <f>IF(F51&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H51" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I51" s="14" t="str">
-        <f>IF(OR(B51&lt;&gt;"",J51&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J51" s="14"/>
-      <c r="K51" s="15"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="104"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
     </row>
     <row r="52" spans="1:11" s="12" customFormat="1">
-      <c r="A52" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="A52" s="13"/>
       <c r="B52" s="13"/>
-      <c r="C52" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="C52" s="25"/>
       <c r="D52" s="14"/>
       <c r="E52" s="14"/>
-      <c r="F52" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G52" s="14" t="str">
-        <f>IF(F52&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H52" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I52" s="14" t="str">
-        <f>IF(OR(B52&lt;&gt;"",J52&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J52" s="14"/>
-      <c r="K52" s="15"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="104"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="19"/>
     </row>
     <row r="53" spans="1:11" s="12" customFormat="1">
-      <c r="A53" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="A53" s="13"/>
       <c r="B53" s="13"/>
-      <c r="C53" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="C53" s="25"/>
       <c r="D53" s="14"/>
       <c r="E53" s="14"/>
-      <c r="F53" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G53" s="14" t="str">
-        <f>IF(F53&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H53" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I53" s="14" t="str">
-        <f>IF(OR(B53&lt;&gt;"",J53&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J53" s="14"/>
-      <c r="K53" s="15"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="104"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="19"/>
     </row>
     <row r="54" spans="1:11" s="12" customFormat="1">
-      <c r="A54" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="A54" s="13"/>
       <c r="B54" s="13"/>
-      <c r="C54" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="C54" s="25"/>
       <c r="D54" s="14"/>
       <c r="E54" s="14"/>
-      <c r="F54" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G54" s="14" t="str">
-        <f>IF(F54&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H54" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I54" s="14" t="str">
-        <f>IF(OR(B54&lt;&gt;"",J54&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J54" s="14"/>
-      <c r="K54" s="15"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="104"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="19"/>
     </row>
     <row r="55" spans="1:11" s="12" customFormat="1">
       <c r="A55" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A55:A106" si="3">IF(OR(B55&lt;&gt;"",J55&lt;&gt;""),CONCATENATE(LEFT(A54,3),IF(MID(A54,4,2)+1&lt;10,CONCATENATE("0",MID(A54,4,2)+1),MID(A54,4,2)+1)),"")</f>
         <v/>
       </c>
       <c r="B55" s="13"/>
-      <c r="C55" s="27" t="str">
+      <c r="C55" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4156,12 +4311,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I55" s="14" t="str">
+      <c r="I55" s="104" t="str">
         <f>IF(OR(B55&lt;&gt;"",J55&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J55" s="14"/>
-      <c r="K55" s="15"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="19"/>
     </row>
     <row r="56" spans="1:11" s="12" customFormat="1">
       <c r="A56" s="13" t="str">
@@ -4169,7 +4324,7 @@
         <v/>
       </c>
       <c r="B56" s="13"/>
-      <c r="C56" s="27" t="str">
+      <c r="C56" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4187,12 +4342,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I56" s="14" t="str">
+      <c r="I56" s="104" t="str">
         <f>IF(OR(B56&lt;&gt;"",J56&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J56" s="14"/>
-      <c r="K56" s="15"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="19"/>
     </row>
     <row r="57" spans="1:11" s="12" customFormat="1">
       <c r="A57" s="13" t="str">
@@ -4200,7 +4355,7 @@
         <v/>
       </c>
       <c r="B57" s="13"/>
-      <c r="C57" s="27" t="str">
+      <c r="C57" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4218,12 +4373,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I57" s="14" t="str">
+      <c r="I57" s="104" t="str">
         <f>IF(OR(B57&lt;&gt;"",J57&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J57" s="14"/>
-      <c r="K57" s="15"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="19"/>
     </row>
     <row r="58" spans="1:11" s="12" customFormat="1">
       <c r="A58" s="13" t="str">
@@ -4231,7 +4386,7 @@
         <v/>
       </c>
       <c r="B58" s="13"/>
-      <c r="C58" s="27" t="str">
+      <c r="C58" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4249,7 +4404,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I58" s="14" t="str">
+      <c r="I58" s="104" t="str">
         <f>IF(OR(B58&lt;&gt;"",J58&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
@@ -4262,7 +4417,7 @@
         <v/>
       </c>
       <c r="B59" s="13"/>
-      <c r="C59" s="27" t="str">
+      <c r="C59" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4280,7 +4435,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I59" s="14" t="str">
+      <c r="I59" s="104" t="str">
         <f>IF(OR(B59&lt;&gt;"",J59&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
@@ -4293,7 +4448,7 @@
         <v/>
       </c>
       <c r="B60" s="13"/>
-      <c r="C60" s="27" t="str">
+      <c r="C60" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4311,11 +4466,11 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I60" s="14" t="str">
+      <c r="I60" s="104" t="str">
         <f>IF(OR(B60&lt;&gt;"",J60&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J60" s="14"/>
+      <c r="J60" s="21"/>
       <c r="K60" s="15"/>
     </row>
     <row r="61" spans="1:11" s="12" customFormat="1">
@@ -4324,7 +4479,7 @@
         <v/>
       </c>
       <c r="B61" s="13"/>
-      <c r="C61" s="27" t="str">
+      <c r="C61" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4342,11 +4497,11 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I61" s="14" t="str">
+      <c r="I61" s="104" t="str">
         <f>IF(OR(B61&lt;&gt;"",J61&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J61" s="14"/>
+      <c r="J61" s="22"/>
       <c r="K61" s="15"/>
     </row>
     <row r="62" spans="1:11" s="12" customFormat="1">
@@ -4355,7 +4510,7 @@
         <v/>
       </c>
       <c r="B62" s="13"/>
-      <c r="C62" s="27" t="str">
+      <c r="C62" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4373,7 +4528,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I62" s="14" t="str">
+      <c r="I62" s="104" t="str">
         <f>IF(OR(B62&lt;&gt;"",J62&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
@@ -4386,7 +4541,7 @@
         <v/>
       </c>
       <c r="B63" s="13"/>
-      <c r="C63" s="27" t="str">
+      <c r="C63" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4404,7 +4559,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I63" s="14" t="str">
+      <c r="I63" s="104" t="str">
         <f>IF(OR(B63&lt;&gt;"",J63&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
@@ -4417,7 +4572,7 @@
         <v/>
       </c>
       <c r="B64" s="13"/>
-      <c r="C64" s="27" t="str">
+      <c r="C64" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4435,7 +4590,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I64" s="14" t="str">
+      <c r="I64" s="104" t="str">
         <f>IF(OR(B64&lt;&gt;"",J64&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
@@ -4448,7 +4603,7 @@
         <v/>
       </c>
       <c r="B65" s="13"/>
-      <c r="C65" s="27" t="str">
+      <c r="C65" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4466,7 +4621,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I65" s="14" t="str">
+      <c r="I65" s="104" t="str">
         <f>IF(OR(B65&lt;&gt;"",J65&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
@@ -4479,7 +4634,7 @@
         <v/>
       </c>
       <c r="B66" s="13"/>
-      <c r="C66" s="27" t="str">
+      <c r="C66" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4497,7 +4652,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I66" s="14" t="str">
+      <c r="I66" s="104" t="str">
         <f>IF(OR(B66&lt;&gt;"",J66&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
@@ -4510,7 +4665,7 @@
         <v/>
       </c>
       <c r="B67" s="13"/>
-      <c r="C67" s="27" t="str">
+      <c r="C67" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4528,7 +4683,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I67" s="14" t="str">
+      <c r="I67" s="104" t="str">
         <f>IF(OR(B67&lt;&gt;"",J67&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
@@ -4541,7 +4696,7 @@
         <v/>
       </c>
       <c r="B68" s="13"/>
-      <c r="C68" s="27" t="str">
+      <c r="C68" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4559,7 +4714,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I68" s="14" t="str">
+      <c r="I68" s="104" t="str">
         <f>IF(OR(B68&lt;&gt;"",J68&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
@@ -4572,7 +4727,7 @@
         <v/>
       </c>
       <c r="B69" s="13"/>
-      <c r="C69" s="27" t="str">
+      <c r="C69" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4590,7 +4745,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I69" s="14" t="str">
+      <c r="I69" s="104" t="str">
         <f>IF(OR(B69&lt;&gt;"",J69&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
@@ -4603,7 +4758,7 @@
         <v/>
       </c>
       <c r="B70" s="13"/>
-      <c r="C70" s="27" t="str">
+      <c r="C70" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4621,7 +4776,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I70" s="14" t="str">
+      <c r="I70" s="104" t="str">
         <f>IF(OR(B70&lt;&gt;"",J70&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
@@ -4634,7 +4789,7 @@
         <v/>
       </c>
       <c r="B71" s="13"/>
-      <c r="C71" s="27" t="str">
+      <c r="C71" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4652,7 +4807,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I71" s="14" t="str">
+      <c r="I71" s="104" t="str">
         <f>IF(OR(B71&lt;&gt;"",J71&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
@@ -4665,7 +4820,7 @@
         <v/>
       </c>
       <c r="B72" s="13"/>
-      <c r="C72" s="27" t="str">
+      <c r="C72" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4683,7 +4838,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I72" s="14" t="str">
+      <c r="I72" s="104" t="str">
         <f>IF(OR(B72&lt;&gt;"",J72&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
@@ -4696,7 +4851,7 @@
         <v/>
       </c>
       <c r="B73" s="13"/>
-      <c r="C73" s="27" t="str">
+      <c r="C73" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4727,7 +4882,7 @@
         <v/>
       </c>
       <c r="B74" s="13"/>
-      <c r="C74" s="27" t="str">
+      <c r="C74" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4758,14 +4913,14 @@
         <v/>
       </c>
       <c r="B75" s="13"/>
-      <c r="C75" s="27" t="str">
-        <f t="shared" ref="C75:C108" si="4">IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+      <c r="C75" s="25" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D75" s="14"/>
       <c r="E75" s="14"/>
       <c r="F75" s="14" t="str">
-        <f t="shared" ref="F75:F108" si="5">IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),CONCATENATE($C$7,"_",$A75,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I75="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G75" s="14" t="str">
@@ -4773,7 +4928,7 @@
         <v/>
       </c>
       <c r="H75" s="14" t="str">
-        <f t="shared" ref="H75:H108" si="6">IF(AND(I75&lt;&gt;"",I75&lt;&gt;0),IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),CONCATENATE($C$7,"_",$A75,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I75" s="14" t="str">
@@ -4789,14 +4944,14 @@
         <v/>
       </c>
       <c r="B76" s="13"/>
-      <c r="C76" s="27" t="str">
-        <f t="shared" si="4"/>
+      <c r="C76" s="25" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D76" s="14"/>
       <c r="E76" s="14"/>
       <c r="F76" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G76" s="14" t="str">
@@ -4804,7 +4959,7 @@
         <v/>
       </c>
       <c r="H76" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I76" s="14" t="str">
@@ -4820,14 +4975,14 @@
         <v/>
       </c>
       <c r="B77" s="13"/>
-      <c r="C77" s="27" t="str">
-        <f t="shared" si="4"/>
+      <c r="C77" s="25" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D77" s="14"/>
       <c r="E77" s="14"/>
       <c r="F77" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G77" s="14" t="str">
@@ -4835,7 +4990,7 @@
         <v/>
       </c>
       <c r="H77" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I77" s="14" t="str">
@@ -4851,14 +5006,14 @@
         <v/>
       </c>
       <c r="B78" s="13"/>
-      <c r="C78" s="27" t="str">
-        <f t="shared" si="4"/>
+      <c r="C78" s="25" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D78" s="14"/>
       <c r="E78" s="14"/>
       <c r="F78" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G78" s="14" t="str">
@@ -4866,7 +5021,7 @@
         <v/>
       </c>
       <c r="H78" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I78" s="14" t="str">
@@ -4882,14 +5037,14 @@
         <v/>
       </c>
       <c r="B79" s="13"/>
-      <c r="C79" s="27" t="str">
-        <f t="shared" si="4"/>
+      <c r="C79" s="25" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D79" s="14"/>
       <c r="E79" s="14"/>
       <c r="F79" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G79" s="14" t="str">
@@ -4897,7 +5052,7 @@
         <v/>
       </c>
       <c r="H79" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I79" s="14" t="str">
@@ -4913,14 +5068,14 @@
         <v/>
       </c>
       <c r="B80" s="13"/>
-      <c r="C80" s="27" t="str">
-        <f t="shared" si="4"/>
+      <c r="C80" s="25" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D80" s="14"/>
       <c r="E80" s="14"/>
       <c r="F80" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G80" s="14" t="str">
@@ -4928,7 +5083,7 @@
         <v/>
       </c>
       <c r="H80" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I80" s="14" t="str">
@@ -4944,14 +5099,14 @@
         <v/>
       </c>
       <c r="B81" s="13"/>
-      <c r="C81" s="27" t="str">
-        <f t="shared" si="4"/>
+      <c r="C81" s="25" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D81" s="14"/>
       <c r="E81" s="14"/>
       <c r="F81" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G81" s="14" t="str">
@@ -4959,7 +5114,7 @@
         <v/>
       </c>
       <c r="H81" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I81" s="14" t="str">
@@ -4975,14 +5130,14 @@
         <v/>
       </c>
       <c r="B82" s="13"/>
-      <c r="C82" s="27" t="str">
-        <f t="shared" si="4"/>
+      <c r="C82" s="25" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D82" s="14"/>
       <c r="E82" s="14"/>
       <c r="F82" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G82" s="14" t="str">
@@ -4990,7 +5145,7 @@
         <v/>
       </c>
       <c r="H82" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I82" s="14" t="str">
@@ -5006,14 +5161,14 @@
         <v/>
       </c>
       <c r="B83" s="13"/>
-      <c r="C83" s="27" t="str">
-        <f t="shared" si="4"/>
+      <c r="C83" s="25" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D83" s="14"/>
       <c r="E83" s="14"/>
       <c r="F83" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G83" s="14" t="str">
@@ -5021,7 +5176,7 @@
         <v/>
       </c>
       <c r="H83" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I83" s="14" t="str">
@@ -5033,18 +5188,18 @@
     </row>
     <row r="84" spans="1:11" s="12" customFormat="1">
       <c r="A84" s="13" t="str">
-        <f t="shared" ref="A84:A108" si="7">IF(OR(B84&lt;&gt;"",J84&lt;&gt;""),CONCATENATE(LEFT(A83,3),IF(MID(A83,4,2)+1&lt;10,CONCATENATE("0",MID(A83,4,2)+1),MID(A83,4,2)+1)),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B84" s="13"/>
-      <c r="C84" s="27" t="str">
-        <f t="shared" si="4"/>
+      <c r="C84" s="25" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D84" s="14"/>
       <c r="E84" s="14"/>
       <c r="F84" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G84" s="14" t="str">
@@ -5052,7 +5207,7 @@
         <v/>
       </c>
       <c r="H84" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I84" s="14" t="str">
@@ -5064,18 +5219,18 @@
     </row>
     <row r="85" spans="1:11" s="12" customFormat="1">
       <c r="A85" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B85" s="13"/>
-      <c r="C85" s="27" t="str">
-        <f t="shared" si="4"/>
+      <c r="C85" s="25" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D85" s="14"/>
       <c r="E85" s="14"/>
       <c r="F85" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G85" s="14" t="str">
@@ -5083,7 +5238,7 @@
         <v/>
       </c>
       <c r="H85" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I85" s="14" t="str">
@@ -5095,18 +5250,18 @@
     </row>
     <row r="86" spans="1:11" s="12" customFormat="1">
       <c r="A86" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B86" s="13"/>
-      <c r="C86" s="27" t="str">
-        <f t="shared" si="4"/>
+      <c r="C86" s="25" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D86" s="14"/>
       <c r="E86" s="14"/>
       <c r="F86" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G86" s="14" t="str">
@@ -5114,7 +5269,7 @@
         <v/>
       </c>
       <c r="H86" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I86" s="14" t="str">
@@ -5126,18 +5281,18 @@
     </row>
     <row r="87" spans="1:11" s="12" customFormat="1">
       <c r="A87" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B87" s="13"/>
-      <c r="C87" s="27" t="str">
-        <f t="shared" si="4"/>
+      <c r="C87" s="25" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D87" s="14"/>
       <c r="E87" s="14"/>
       <c r="F87" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G87" s="14" t="str">
@@ -5145,7 +5300,7 @@
         <v/>
       </c>
       <c r="H87" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I87" s="14" t="str">
@@ -5157,18 +5312,18 @@
     </row>
     <row r="88" spans="1:11" s="12" customFormat="1">
       <c r="A88" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B88" s="13"/>
-      <c r="C88" s="27" t="str">
-        <f t="shared" si="4"/>
+      <c r="C88" s="25" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D88" s="14"/>
       <c r="E88" s="14"/>
       <c r="F88" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G88" s="14" t="str">
@@ -5176,7 +5331,7 @@
         <v/>
       </c>
       <c r="H88" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I88" s="14" t="str">
@@ -5188,18 +5343,18 @@
     </row>
     <row r="89" spans="1:11" s="12" customFormat="1">
       <c r="A89" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B89" s="13"/>
-      <c r="C89" s="27" t="str">
-        <f t="shared" si="4"/>
+      <c r="C89" s="25" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D89" s="14"/>
       <c r="E89" s="14"/>
       <c r="F89" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G89" s="14" t="str">
@@ -5207,7 +5362,7 @@
         <v/>
       </c>
       <c r="H89" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I89" s="14" t="str">
@@ -5219,18 +5374,18 @@
     </row>
     <row r="90" spans="1:11" s="12" customFormat="1">
       <c r="A90" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B90" s="13"/>
-      <c r="C90" s="27" t="str">
-        <f t="shared" si="4"/>
+      <c r="C90" s="25" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D90" s="14"/>
       <c r="E90" s="14"/>
       <c r="F90" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G90" s="14" t="str">
@@ -5238,7 +5393,7 @@
         <v/>
       </c>
       <c r="H90" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I90" s="14" t="str">
@@ -5250,18 +5405,18 @@
     </row>
     <row r="91" spans="1:11" s="12" customFormat="1">
       <c r="A91" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B91" s="13"/>
-      <c r="C91" s="27" t="str">
-        <f t="shared" si="4"/>
+      <c r="C91" s="25" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D91" s="14"/>
       <c r="E91" s="14"/>
       <c r="F91" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G91" s="14" t="str">
@@ -5269,7 +5424,7 @@
         <v/>
       </c>
       <c r="H91" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I91" s="14" t="str">
@@ -5281,18 +5436,18 @@
     </row>
     <row r="92" spans="1:11" s="12" customFormat="1">
       <c r="A92" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B92" s="13"/>
-      <c r="C92" s="27" t="str">
-        <f t="shared" si="4"/>
+      <c r="C92" s="25" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D92" s="14"/>
       <c r="E92" s="14"/>
       <c r="F92" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G92" s="14" t="str">
@@ -5300,7 +5455,7 @@
         <v/>
       </c>
       <c r="H92" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I92" s="14" t="str">
@@ -5312,18 +5467,18 @@
     </row>
     <row r="93" spans="1:11" s="12" customFormat="1">
       <c r="A93" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B93" s="13"/>
-      <c r="C93" s="27" t="str">
-        <f t="shared" si="4"/>
+      <c r="C93" s="25" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D93" s="14"/>
       <c r="E93" s="14"/>
       <c r="F93" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G93" s="14" t="str">
@@ -5331,7 +5486,7 @@
         <v/>
       </c>
       <c r="H93" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I93" s="14" t="str">
@@ -5343,18 +5498,18 @@
     </row>
     <row r="94" spans="1:11" s="12" customFormat="1">
       <c r="A94" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B94" s="13"/>
-      <c r="C94" s="27" t="str">
-        <f t="shared" si="4"/>
+      <c r="C94" s="25" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D94" s="14"/>
       <c r="E94" s="14"/>
       <c r="F94" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G94" s="14" t="str">
@@ -5362,7 +5517,7 @@
         <v/>
       </c>
       <c r="H94" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I94" s="14" t="str">
@@ -5374,18 +5529,18 @@
     </row>
     <row r="95" spans="1:11" s="12" customFormat="1">
       <c r="A95" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B95" s="13"/>
-      <c r="C95" s="27" t="str">
-        <f t="shared" si="4"/>
+      <c r="C95" s="25" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D95" s="14"/>
       <c r="E95" s="14"/>
       <c r="F95" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G95" s="14" t="str">
@@ -5393,7 +5548,7 @@
         <v/>
       </c>
       <c r="H95" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I95" s="14" t="str">
@@ -5405,18 +5560,18 @@
     </row>
     <row r="96" spans="1:11" s="12" customFormat="1">
       <c r="A96" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B96" s="13"/>
-      <c r="C96" s="27" t="str">
-        <f t="shared" si="4"/>
+      <c r="C96" s="25" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D96" s="14"/>
       <c r="E96" s="14"/>
       <c r="F96" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G96" s="14" t="str">
@@ -5424,7 +5579,7 @@
         <v/>
       </c>
       <c r="H96" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I96" s="14" t="str">
@@ -5436,18 +5591,18 @@
     </row>
     <row r="97" spans="1:11" s="12" customFormat="1">
       <c r="A97" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B97" s="13"/>
-      <c r="C97" s="27" t="str">
-        <f t="shared" si="4"/>
+      <c r="C97" s="25" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D97" s="14"/>
       <c r="E97" s="14"/>
       <c r="F97" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G97" s="14" t="str">
@@ -5455,7 +5610,7 @@
         <v/>
       </c>
       <c r="H97" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I97" s="14" t="str">
@@ -5467,18 +5622,18 @@
     </row>
     <row r="98" spans="1:11" s="12" customFormat="1">
       <c r="A98" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B98" s="13"/>
-      <c r="C98" s="27" t="str">
-        <f t="shared" si="4"/>
+      <c r="C98" s="25" t="str">
+        <f t="shared" ref="C98:C131" si="4">IF(OR(B98&lt;&gt;"",J98&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v/>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="14"/>
       <c r="F98" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="F98:F131" si="5">IF(OR(B98&lt;&gt;"",J98&lt;&gt;""),CONCATENATE($C$7,"_",$A98,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I98="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v/>
       </c>
       <c r="G98" s="14" t="str">
@@ -5486,7 +5641,7 @@
         <v/>
       </c>
       <c r="H98" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="H98:H131" si="6">IF(AND(I98&lt;&gt;"",I98&lt;&gt;0),IF(OR(B98&lt;&gt;"",J98&lt;&gt;""),CONCATENATE($C$7,"_",$A98,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v/>
       </c>
       <c r="I98" s="14" t="str">
@@ -5498,11 +5653,11 @@
     </row>
     <row r="99" spans="1:11" s="12" customFormat="1">
       <c r="A99" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B99" s="13"/>
-      <c r="C99" s="27" t="str">
+      <c r="C99" s="25" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5529,11 +5684,11 @@
     </row>
     <row r="100" spans="1:11" s="12" customFormat="1">
       <c r="A100" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B100" s="13"/>
-      <c r="C100" s="27" t="str">
+      <c r="C100" s="25" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5560,11 +5715,11 @@
     </row>
     <row r="101" spans="1:11" s="12" customFormat="1">
       <c r="A101" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B101" s="13"/>
-      <c r="C101" s="27" t="str">
+      <c r="C101" s="25" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5591,11 +5746,11 @@
     </row>
     <row r="102" spans="1:11" s="12" customFormat="1">
       <c r="A102" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B102" s="13"/>
-      <c r="C102" s="27" t="str">
+      <c r="C102" s="25" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5622,11 +5777,11 @@
     </row>
     <row r="103" spans="1:11" s="12" customFormat="1">
       <c r="A103" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B103" s="13"/>
-      <c r="C103" s="27" t="str">
+      <c r="C103" s="25" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5653,11 +5808,11 @@
     </row>
     <row r="104" spans="1:11" s="12" customFormat="1">
       <c r="A104" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B104" s="13"/>
-      <c r="C104" s="27" t="str">
+      <c r="C104" s="25" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5684,11 +5839,11 @@
     </row>
     <row r="105" spans="1:11" s="12" customFormat="1">
       <c r="A105" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B105" s="13"/>
-      <c r="C105" s="27" t="str">
+      <c r="C105" s="25" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5715,11 +5870,11 @@
     </row>
     <row r="106" spans="1:11" s="12" customFormat="1">
       <c r="A106" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B106" s="13"/>
-      <c r="C106" s="27" t="str">
+      <c r="C106" s="25" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5746,11 +5901,11 @@
     </row>
     <row r="107" spans="1:11" s="12" customFormat="1">
       <c r="A107" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="A107:A131" si="7">IF(OR(B107&lt;&gt;"",J107&lt;&gt;""),CONCATENATE(LEFT(A106,3),IF(MID(A106,4,2)+1&lt;10,CONCATENATE("0",MID(A106,4,2)+1),MID(A106,4,2)+1)),"")</f>
         <v/>
       </c>
       <c r="B107" s="13"/>
-      <c r="C107" s="27" t="str">
+      <c r="C107" s="25" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5781,7 +5936,7 @@
         <v/>
       </c>
       <c r="B108" s="13"/>
-      <c r="C108" s="27" t="str">
+      <c r="C108" s="25" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5805,6 +5960,719 @@
       </c>
       <c r="J108" s="14"/>
       <c r="K108" s="15"/>
+    </row>
+    <row r="109" spans="1:11" s="12" customFormat="1">
+      <c r="A109" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B109" s="13"/>
+      <c r="C109" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G109" s="14" t="str">
+        <f>IF(F109&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H109" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I109" s="14" t="str">
+        <f>IF(OR(B109&lt;&gt;"",J109&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J109" s="14"/>
+      <c r="K109" s="15"/>
+    </row>
+    <row r="110" spans="1:11" s="12" customFormat="1">
+      <c r="A110" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B110" s="13"/>
+      <c r="C110" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G110" s="14" t="str">
+        <f>IF(F110&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H110" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I110" s="14" t="str">
+        <f>IF(OR(B110&lt;&gt;"",J110&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J110" s="14"/>
+      <c r="K110" s="15"/>
+    </row>
+    <row r="111" spans="1:11" s="12" customFormat="1">
+      <c r="A111" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B111" s="13"/>
+      <c r="C111" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G111" s="14" t="str">
+        <f>IF(F111&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H111" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I111" s="14" t="str">
+        <f>IF(OR(B111&lt;&gt;"",J111&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J111" s="14"/>
+      <c r="K111" s="15"/>
+    </row>
+    <row r="112" spans="1:11" s="12" customFormat="1">
+      <c r="A112" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B112" s="13"/>
+      <c r="C112" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G112" s="14" t="str">
+        <f>IF(F112&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H112" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I112" s="14" t="str">
+        <f>IF(OR(B112&lt;&gt;"",J112&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J112" s="14"/>
+      <c r="K112" s="15"/>
+    </row>
+    <row r="113" spans="1:11" s="12" customFormat="1">
+      <c r="A113" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B113" s="13"/>
+      <c r="C113" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G113" s="14" t="str">
+        <f>IF(F113&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H113" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I113" s="14" t="str">
+        <f>IF(OR(B113&lt;&gt;"",J113&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J113" s="14"/>
+      <c r="K113" s="15"/>
+    </row>
+    <row r="114" spans="1:11" s="12" customFormat="1">
+      <c r="A114" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B114" s="13"/>
+      <c r="C114" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G114" s="14" t="str">
+        <f>IF(F114&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H114" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I114" s="14" t="str">
+        <f>IF(OR(B114&lt;&gt;"",J114&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J114" s="14"/>
+      <c r="K114" s="15"/>
+    </row>
+    <row r="115" spans="1:11" s="12" customFormat="1">
+      <c r="A115" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B115" s="13"/>
+      <c r="C115" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G115" s="14" t="str">
+        <f>IF(F115&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H115" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I115" s="14" t="str">
+        <f>IF(OR(B115&lt;&gt;"",J115&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J115" s="14"/>
+      <c r="K115" s="15"/>
+    </row>
+    <row r="116" spans="1:11" s="12" customFormat="1">
+      <c r="A116" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B116" s="13"/>
+      <c r="C116" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G116" s="14" t="str">
+        <f>IF(F116&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H116" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I116" s="14" t="str">
+        <f>IF(OR(B116&lt;&gt;"",J116&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J116" s="14"/>
+      <c r="K116" s="15"/>
+    </row>
+    <row r="117" spans="1:11" s="12" customFormat="1">
+      <c r="A117" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B117" s="13"/>
+      <c r="C117" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G117" s="14" t="str">
+        <f>IF(F117&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H117" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I117" s="14" t="str">
+        <f>IF(OR(B117&lt;&gt;"",J117&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J117" s="14"/>
+      <c r="K117" s="15"/>
+    </row>
+    <row r="118" spans="1:11" s="12" customFormat="1">
+      <c r="A118" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B118" s="13"/>
+      <c r="C118" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G118" s="14" t="str">
+        <f>IF(F118&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H118" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I118" s="14" t="str">
+        <f>IF(OR(B118&lt;&gt;"",J118&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J118" s="14"/>
+      <c r="K118" s="15"/>
+    </row>
+    <row r="119" spans="1:11" s="12" customFormat="1">
+      <c r="A119" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B119" s="13"/>
+      <c r="C119" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D119" s="14"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G119" s="14" t="str">
+        <f>IF(F119&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H119" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I119" s="14" t="str">
+        <f>IF(OR(B119&lt;&gt;"",J119&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J119" s="14"/>
+      <c r="K119" s="15"/>
+    </row>
+    <row r="120" spans="1:11" s="12" customFormat="1">
+      <c r="A120" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B120" s="13"/>
+      <c r="C120" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G120" s="14" t="str">
+        <f>IF(F120&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H120" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I120" s="14" t="str">
+        <f>IF(OR(B120&lt;&gt;"",J120&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J120" s="14"/>
+      <c r="K120" s="15"/>
+    </row>
+    <row r="121" spans="1:11" s="12" customFormat="1">
+      <c r="A121" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B121" s="13"/>
+      <c r="C121" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G121" s="14" t="str">
+        <f>IF(F121&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H121" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I121" s="14" t="str">
+        <f>IF(OR(B121&lt;&gt;"",J121&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J121" s="14"/>
+      <c r="K121" s="15"/>
+    </row>
+    <row r="122" spans="1:11" s="12" customFormat="1">
+      <c r="A122" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B122" s="13"/>
+      <c r="C122" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G122" s="14" t="str">
+        <f>IF(F122&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H122" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I122" s="14" t="str">
+        <f>IF(OR(B122&lt;&gt;"",J122&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J122" s="14"/>
+      <c r="K122" s="15"/>
+    </row>
+    <row r="123" spans="1:11" s="12" customFormat="1">
+      <c r="A123" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B123" s="13"/>
+      <c r="C123" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G123" s="14" t="str">
+        <f>IF(F123&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H123" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I123" s="14" t="str">
+        <f>IF(OR(B123&lt;&gt;"",J123&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J123" s="14"/>
+      <c r="K123" s="15"/>
+    </row>
+    <row r="124" spans="1:11" s="12" customFormat="1">
+      <c r="A124" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B124" s="13"/>
+      <c r="C124" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G124" s="14" t="str">
+        <f>IF(F124&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H124" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I124" s="14" t="str">
+        <f>IF(OR(B124&lt;&gt;"",J124&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J124" s="14"/>
+      <c r="K124" s="15"/>
+    </row>
+    <row r="125" spans="1:11" s="12" customFormat="1">
+      <c r="A125" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B125" s="13"/>
+      <c r="C125" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G125" s="14" t="str">
+        <f>IF(F125&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H125" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I125" s="14" t="str">
+        <f>IF(OR(B125&lt;&gt;"",J125&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J125" s="14"/>
+      <c r="K125" s="15"/>
+    </row>
+    <row r="126" spans="1:11" s="12" customFormat="1">
+      <c r="A126" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B126" s="13"/>
+      <c r="C126" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D126" s="14"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G126" s="14" t="str">
+        <f>IF(F126&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H126" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I126" s="14" t="str">
+        <f>IF(OR(B126&lt;&gt;"",J126&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J126" s="14"/>
+      <c r="K126" s="15"/>
+    </row>
+    <row r="127" spans="1:11" s="12" customFormat="1">
+      <c r="A127" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B127" s="13"/>
+      <c r="C127" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D127" s="14"/>
+      <c r="E127" s="14"/>
+      <c r="F127" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G127" s="14" t="str">
+        <f>IF(F127&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H127" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I127" s="14" t="str">
+        <f>IF(OR(B127&lt;&gt;"",J127&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J127" s="14"/>
+      <c r="K127" s="15"/>
+    </row>
+    <row r="128" spans="1:11" s="12" customFormat="1">
+      <c r="A128" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B128" s="13"/>
+      <c r="C128" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D128" s="14"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G128" s="14" t="str">
+        <f>IF(F128&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H128" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I128" s="14" t="str">
+        <f>IF(OR(B128&lt;&gt;"",J128&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J128" s="14"/>
+      <c r="K128" s="15"/>
+    </row>
+    <row r="129" spans="1:11" s="12" customFormat="1">
+      <c r="A129" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B129" s="13"/>
+      <c r="C129" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D129" s="14"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G129" s="14" t="str">
+        <f>IF(F129&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H129" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I129" s="14" t="str">
+        <f>IF(OR(B129&lt;&gt;"",J129&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J129" s="14"/>
+      <c r="K129" s="15"/>
+    </row>
+    <row r="130" spans="1:11" s="12" customFormat="1">
+      <c r="A130" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B130" s="13"/>
+      <c r="C130" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D130" s="14"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G130" s="14" t="str">
+        <f>IF(F130&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H130" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I130" s="14" t="str">
+        <f>IF(OR(B130&lt;&gt;"",J130&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J130" s="14"/>
+      <c r="K130" s="15"/>
+    </row>
+    <row r="131" spans="1:11" s="12" customFormat="1">
+      <c r="A131" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B131" s="13"/>
+      <c r="C131" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G131" s="14" t="str">
+        <f>IF(F131&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H131" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I131" s="14" t="str">
+        <f>IF(OR(B131&lt;&gt;"",J131&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J131" s="14"/>
+      <c r="K131" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5830,12 +6698,6 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E108">
-      <formula1>"Vertical,Horizontal"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D108">
-      <formula1>"Ilustración,Fotografía"</formula1>
-    </dataValidation>
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:G3">
       <formula1>42036</formula1>
       <formula2>42490</formula2>
@@ -5852,13 +6714,19 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
       <formula1>"3,4,5,6,7,8,9,10,11"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14:E131 E11:E13">
+      <formula1>"Vertical,Horizontal"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14:D131 D11:D13">
+      <formula1>"Ilustración,Fotografía"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B18" r:id="rId1"/>
-    <hyperlink ref="B20" r:id="rId2"/>
-    <hyperlink ref="B21" r:id="rId3"/>
-    <hyperlink ref="B24" r:id="rId4"/>
-    <hyperlink ref="B26" r:id="rId5"/>
+    <hyperlink ref="B26" r:id="rId1"/>
+    <hyperlink ref="B30" r:id="rId2"/>
+    <hyperlink ref="B40" r:id="rId3"/>
+    <hyperlink ref="B46" r:id="rId4"/>
+    <hyperlink ref="B49" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId6"/>
@@ -5881,539 +6749,539 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="72.21875" style="30" customWidth="1"/>
-    <col min="2" max="2" width="11" style="30"/>
-    <col min="3" max="3" width="13.77734375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="30" customWidth="1"/>
-    <col min="5" max="7" width="11" style="30"/>
-    <col min="8" max="11" width="11" style="30" hidden="1" customWidth="1"/>
-    <col min="12" max="16384" width="11" style="30"/>
+    <col min="1" max="1" width="72.21875" style="27" customWidth="1"/>
+    <col min="2" max="2" width="11" style="27"/>
+    <col min="3" max="3" width="13.77734375" style="27" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="27" customWidth="1"/>
+    <col min="5" max="7" width="11" style="27"/>
+    <col min="8" max="11" width="11" style="27" hidden="1" customWidth="1"/>
+    <col min="12" max="16384" width="11" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="89"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="88"/>
     </row>
     <row r="2" spans="1:11" ht="15.75">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="90" t="s">
+      <c r="B2" s="36"/>
+      <c r="C2" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="40"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="37"/>
     </row>
     <row r="3" spans="1:11" ht="60">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="96" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="97"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="40"/>
-      <c r="H3" s="30" t="s">
+      <c r="D3" s="96"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="37"/>
+      <c r="H3" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="30" t="s">
+      <c r="I3" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="30" t="s">
+      <c r="J3" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="30" t="s">
+      <c r="K3" s="27" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="30">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="34" t="s">
+      <c r="B4" s="36"/>
+      <c r="C4" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="40"/>
-      <c r="H4" s="30" t="s">
+      <c r="F4" s="37"/>
+      <c r="H4" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="30" t="s">
+      <c r="I4" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="30">
+      <c r="J4" s="27">
         <v>1</v>
       </c>
-      <c r="K4" s="30">
+      <c r="K4" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="75.75" thickBot="1">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="36" t="s">
+      <c r="B5" s="36"/>
+      <c r="C5" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="99" t="str">
+      <c r="D5" s="98" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>LE_07_04_CO</v>
       </c>
-      <c r="E5" s="100"/>
-      <c r="F5" s="40"/>
-      <c r="H5" s="30" t="s">
+      <c r="E5" s="99"/>
+      <c r="F5" s="37"/>
+      <c r="H5" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="I5" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="30">
+      <c r="J5" s="27">
         <v>2</v>
       </c>
-      <c r="K5" s="30">
+      <c r="K5" s="27">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="30.75" thickBot="1">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="40"/>
-      <c r="H6" s="30" t="s">
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="37"/>
+      <c r="H6" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="I6" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="30">
+      <c r="J6" s="27">
         <v>3</v>
       </c>
-      <c r="K6" s="30">
+      <c r="K6" s="27">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="48" thickBot="1">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="70" t="s">
+      <c r="B7" s="36"/>
+      <c r="C7" s="67" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="85" t="str">
+      <c r="D7" s="84" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_CO.xls</v>
       </c>
-      <c r="E7" s="85"/>
-      <c r="F7" s="86"/>
-      <c r="H7" s="30" t="s">
+      <c r="E7" s="84"/>
+      <c r="F7" s="85"/>
+      <c r="H7" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="I7" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="30">
+      <c r="J7" s="27">
         <v>4</v>
       </c>
-      <c r="K7" s="30">
+      <c r="K7" s="27">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="45">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="40"/>
-      <c r="I8" s="30" t="s">
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="37"/>
+      <c r="I8" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="30">
+      <c r="J8" s="27">
         <v>5</v>
       </c>
-      <c r="K8" s="30">
+      <c r="K8" s="27">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="45">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="40"/>
-      <c r="I9" s="30" t="s">
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="37"/>
+      <c r="I9" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="30">
+      <c r="J9" s="27">
         <v>6</v>
       </c>
-      <c r="K9" s="30">
+      <c r="K9" s="27">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="30.75" thickBot="1">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="44"/>
-      <c r="I10" s="30" t="s">
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="41"/>
+      <c r="I10" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="30">
+      <c r="J10" s="27">
         <v>7</v>
       </c>
-      <c r="K10" s="30">
+      <c r="K10" s="27">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="I11" s="30" t="s">
+      <c r="I11" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="30">
+      <c r="J11" s="27">
         <v>8</v>
       </c>
-      <c r="K11" s="30">
+      <c r="K11" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1">
-      <c r="I12" s="30" t="s">
+      <c r="I12" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="30">
+      <c r="J12" s="27">
         <v>9</v>
       </c>
-      <c r="K12" s="30">
+      <c r="K12" s="27">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75">
-      <c r="A13" s="87" t="s">
+      <c r="A13" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="88"/>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="89"/>
-      <c r="I13" s="30" t="s">
+      <c r="B13" s="87"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="88"/>
+      <c r="I13" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="30">
+      <c r="J13" s="27">
         <v>10</v>
       </c>
-      <c r="K13" s="30">
+      <c r="K13" s="27">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A14" s="41"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="40"/>
-      <c r="I14" s="30" t="s">
+      <c r="A14" s="38"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="37"/>
+      <c r="I14" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="J14" s="30">
+      <c r="J14" s="27">
         <v>11</v>
       </c>
-      <c r="K14" s="30">
+      <c r="K14" s="27">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="90" t="s">
+      <c r="B15" s="36"/>
+      <c r="C15" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="91"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="92"/>
-      <c r="J15" s="30">
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="91"/>
+      <c r="J15" s="27">
         <v>12</v>
       </c>
-      <c r="K15" s="30">
+      <c r="K15" s="27">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="67.150000000000006" customHeight="1">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="34" t="s">
+      <c r="B16" s="36"/>
+      <c r="C16" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="33" t="s">
+      <c r="E16" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="35" t="s">
+      <c r="F16" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="J16" s="30">
+      <c r="J16" s="27">
         <v>13</v>
       </c>
-      <c r="K16" s="30">
+      <c r="K16" s="27">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="32.1" customHeight="1" thickBot="1">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="36" t="s">
+      <c r="B17" s="36"/>
+      <c r="C17" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="93" t="str">
+      <c r="D17" s="92" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>LE_07_04_REC10</v>
       </c>
-      <c r="E17" s="94"/>
-      <c r="F17" s="95"/>
-      <c r="J17" s="30">
+      <c r="E17" s="93"/>
+      <c r="F17" s="94"/>
+      <c r="J17" s="27">
         <v>14</v>
       </c>
-      <c r="K17" s="30">
+      <c r="K17" s="27">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="75.75" thickBot="1">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="70" t="s">
+      <c r="B18" s="36"/>
+      <c r="C18" s="67" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="85" t="str">
+      <c r="D18" s="84" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_REC10.xls</v>
       </c>
-      <c r="E18" s="85"/>
-      <c r="F18" s="86"/>
-      <c r="J18" s="30">
+      <c r="E18" s="84"/>
+      <c r="F18" s="85"/>
+      <c r="J18" s="27">
         <v>15</v>
       </c>
-      <c r="K18" s="30">
+      <c r="K18" s="27">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="40"/>
-      <c r="H19" s="30">
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="37"/>
+      <c r="H19" s="27">
         <v>3</v>
       </c>
-      <c r="J19" s="30">
+      <c r="J19" s="27">
         <v>16</v>
       </c>
-      <c r="K19" s="30">
+      <c r="K19" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="60.75" thickBot="1">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="44"/>
-      <c r="H20" s="30">
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="41"/>
+      <c r="H20" s="27">
         <v>4</v>
       </c>
-      <c r="I20" s="30">
+      <c r="I20" s="27">
         <v>5</v>
       </c>
-      <c r="J20" s="30">
+      <c r="J20" s="27">
         <v>4</v>
       </c>
-      <c r="K20" s="30">
+      <c r="K20" s="27">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="H21" s="30" t="str">
+      <c r="H21" s="27" t="str">
         <f>IF(INDEX(H4:H7,H20)=H4,"MA",IF(INDEX(H4:H7,H20)=H5,"CN",IF(INDEX(H4:H7,H20)=H6,"CS",IF(INDEX(H4:H7,H20)=H7,"LE"))))</f>
         <v>LE</v>
       </c>
-      <c r="I21" s="30" t="str">
+      <c r="I21" s="27" t="str">
         <f>CONCATENATE(IF((I20+2)&lt;10,"0",""),I20+2)</f>
         <v>07</v>
       </c>
-      <c r="J21" s="30" t="str">
+      <c r="J21" s="27" t="str">
         <f>CONCATENATE(IF(J20&lt;10,"0",""),J20)</f>
         <v>04</v>
       </c>
-      <c r="K21" s="30">
+      <c r="K21" s="27">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="K22" s="30">
+      <c r="K22" s="27">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="K23" s="30">
+      <c r="K23" s="27">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="K24" s="30">
+      <c r="K24" s="27">
         <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="K25" s="30">
+      <c r="K25" s="27">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="K26" s="30">
+      <c r="K26" s="27">
         <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="K27" s="30">
+      <c r="K27" s="27">
         <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="K28" s="30">
+      <c r="K28" s="27">
         <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="K29" s="30">
+      <c r="K29" s="27">
         <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="K30" s="30">
+      <c r="K30" s="27">
         <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="K31" s="30">
+      <c r="K31" s="27">
         <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="K32" s="30">
+      <c r="K32" s="27">
         <v>29</v>
       </c>
     </row>
     <row r="33" spans="11:11">
-      <c r="K33" s="30">
+      <c r="K33" s="27">
         <v>30</v>
       </c>
     </row>
     <row r="34" spans="11:11">
-      <c r="K34" s="30">
+      <c r="K34" s="27">
         <v>31</v>
       </c>
     </row>
     <row r="35" spans="11:11">
-      <c r="K35" s="30">
+      <c r="K35" s="27">
         <v>32</v>
       </c>
     </row>
     <row r="36" spans="11:11">
-      <c r="K36" s="30">
+      <c r="K36" s="27">
         <v>33</v>
       </c>
     </row>
     <row r="37" spans="11:11">
-      <c r="K37" s="30">
+      <c r="K37" s="27">
         <v>34</v>
       </c>
     </row>
     <row r="38" spans="11:11">
-      <c r="K38" s="30">
+      <c r="K38" s="27">
         <v>35</v>
       </c>
     </row>
     <row r="39" spans="11:11">
-      <c r="K39" s="30">
+      <c r="K39" s="27">
         <v>36</v>
       </c>
     </row>
     <row r="40" spans="11:11">
-      <c r="K40" s="30">
+      <c r="K40" s="27">
         <v>37</v>
       </c>
     </row>
     <row r="41" spans="11:11">
-      <c r="K41" s="30">
+      <c r="K41" s="27">
         <v>38</v>
       </c>
     </row>
     <row r="42" spans="11:11">
-      <c r="K42" s="30">
+      <c r="K42" s="27">
         <v>39</v>
       </c>
     </row>
     <row r="43" spans="11:11">
-      <c r="K43" s="30">
+      <c r="K43" s="27">
         <v>40</v>
       </c>
     </row>
     <row r="44" spans="11:11">
-      <c r="K44" s="30">
+      <c r="K44" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="11:11">
-      <c r="K45" s="30" t="str">
+      <c r="K45" s="27" t="str">
         <f>CONCATENATE("REC",K44,0)</f>
         <v>REC10</v>
       </c>
@@ -6608,562 +7476,562 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21" style="30" customWidth="1"/>
-    <col min="2" max="2" width="22.21875" style="30" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="30" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" style="30"/>
-    <col min="5" max="5" width="11.6640625" style="30" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="30" customWidth="1"/>
-    <col min="7" max="7" width="11" style="30" customWidth="1"/>
-    <col min="8" max="8" width="24.44140625" style="30" customWidth="1"/>
-    <col min="9" max="9" width="22.21875" style="30" customWidth="1"/>
-    <col min="10" max="10" width="20.6640625" style="30" customWidth="1"/>
-    <col min="11" max="11" width="44.44140625" style="30" customWidth="1"/>
-    <col min="12" max="16384" width="10.77734375" style="30"/>
+    <col min="1" max="1" width="21" style="27" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" style="27" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" style="27"/>
+    <col min="5" max="5" width="11.6640625" style="27" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="27" customWidth="1"/>
+    <col min="7" max="7" width="11" style="27" customWidth="1"/>
+    <col min="8" max="8" width="24.44140625" style="27" customWidth="1"/>
+    <col min="9" max="9" width="22.21875" style="27" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" style="27" customWidth="1"/>
+    <col min="11" max="11" width="44.44140625" style="27" customWidth="1"/>
+    <col min="12" max="16384" width="10.77734375" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="100" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="101" t="s">
+      <c r="B1" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="101" t="s">
+      <c r="C1" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="101" t="s">
+      <c r="D1" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="101" t="s">
+      <c r="E1" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="101" t="s">
+      <c r="F1" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="101" t="s">
+      <c r="G1" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="102" t="s">
+      <c r="H1" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="49" t="s">
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="49" t="s">
+      <c r="I2" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="J2" s="49" t="s">
+      <c r="J2" s="46" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="51" customFormat="1">
-      <c r="A3" s="50" t="s">
+    <row r="3" spans="1:11" s="48" customFormat="1">
+      <c r="A3" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50" t="s">
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-    </row>
-    <row r="4" spans="1:11" s="51" customFormat="1">
-      <c r="A4" s="52" t="s">
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+    </row>
+    <row r="4" spans="1:11" s="48" customFormat="1">
+      <c r="A4" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52" t="s">
+      <c r="G4" s="49"/>
+      <c r="H4" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="I4" s="52" t="s">
+      <c r="I4" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="J4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" s="51" customFormat="1">
-      <c r="A5" s="53" t="s">
+      <c r="J4" s="49"/>
+    </row>
+    <row r="5" spans="1:11" s="48" customFormat="1">
+      <c r="A5" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="54"/>
-      <c r="H5" s="52" t="s">
+      <c r="G5" s="51"/>
+      <c r="H5" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="I5" s="52" t="s">
+      <c r="I5" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="J5" s="54"/>
-    </row>
-    <row r="6" spans="1:11" s="51" customFormat="1">
-      <c r="A6" s="52" t="s">
+      <c r="J5" s="51"/>
+    </row>
+    <row r="6" spans="1:11" s="48" customFormat="1">
+      <c r="A6" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="52" t="s">
+      <c r="E6" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="F6" s="52" t="s">
+      <c r="F6" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="G6" s="52" t="s">
+      <c r="G6" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="H6" s="52" t="s">
+      <c r="H6" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="I6" s="52" t="s">
+      <c r="I6" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="J6" s="52" t="s">
+      <c r="J6" s="49" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="51" customFormat="1">
-      <c r="A7" s="52" t="s">
+    <row r="7" spans="1:11" s="48" customFormat="1">
+      <c r="A7" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="52" t="s">
+      <c r="E7" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="52" t="s">
+      <c r="F7" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52" t="s">
+      <c r="G7" s="49"/>
+      <c r="H7" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="I7" s="52" t="s">
+      <c r="I7" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="J7" s="52"/>
-    </row>
-    <row r="8" spans="1:11" s="51" customFormat="1">
-      <c r="A8" s="52" t="s">
+      <c r="J7" s="49"/>
+    </row>
+    <row r="8" spans="1:11" s="48" customFormat="1">
+      <c r="A8" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="52" t="s">
+      <c r="E8" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="F8" s="52" t="s">
+      <c r="F8" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52" t="s">
+      <c r="G8" s="49"/>
+      <c r="H8" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="I8" s="52" t="s">
+      <c r="I8" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="J8" s="52"/>
-    </row>
-    <row r="9" spans="1:11" s="51" customFormat="1">
-      <c r="A9" s="52" t="s">
+      <c r="J8" s="49"/>
+    </row>
+    <row r="9" spans="1:11" s="48" customFormat="1">
+      <c r="A9" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="52" t="s">
+      <c r="D9" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="52" t="s">
+      <c r="E9" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="52" t="s">
+      <c r="F9" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52" t="s">
+      <c r="G9" s="49"/>
+      <c r="H9" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="I9" s="52" t="s">
+      <c r="I9" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="J9" s="52"/>
-    </row>
-    <row r="10" spans="1:11" s="51" customFormat="1">
-      <c r="A10" s="52" t="s">
+      <c r="J9" s="49"/>
+    </row>
+    <row r="10" spans="1:11" s="48" customFormat="1">
+      <c r="A10" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="52" t="s">
+      <c r="D10" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="52" t="s">
+      <c r="E10" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52" t="s">
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="I10" s="52" t="s">
+      <c r="I10" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="J10" s="52"/>
-    </row>
-    <row r="11" spans="1:11" s="51" customFormat="1" ht="25.5">
-      <c r="A11" s="52" t="s">
+      <c r="J10" s="49"/>
+    </row>
+    <row r="11" spans="1:11" s="48" customFormat="1" ht="25.5">
+      <c r="A11" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="52" t="s">
+      <c r="D11" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="52" t="s">
+      <c r="E11" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="52" t="s">
+      <c r="F11" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52" t="s">
+      <c r="G11" s="49"/>
+      <c r="H11" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="I11" s="52" t="s">
+      <c r="I11" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="J11" s="52"/>
-    </row>
-    <row r="12" spans="1:11" s="51" customFormat="1">
-      <c r="A12" s="52" t="s">
+      <c r="J11" s="49"/>
+    </row>
+    <row r="12" spans="1:11" s="48" customFormat="1">
+      <c r="A12" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="52" t="s">
+      <c r="D12" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="52" t="s">
+      <c r="E12" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="52" t="s">
+      <c r="F12" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52" t="s">
+      <c r="G12" s="49"/>
+      <c r="H12" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="I12" s="52" t="s">
+      <c r="I12" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="J12" s="52"/>
+      <c r="J12" s="49"/>
     </row>
     <row r="13" spans="1:11" ht="61.5">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="52" t="s">
+      <c r="C13" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="56" t="s">
+      <c r="D13" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="56"/>
-      <c r="F13" s="57" t="s">
+      <c r="E13" s="53"/>
+      <c r="F13" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="G13" s="55"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52" t="s">
+      <c r="G13" s="52"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="J13" s="55"/>
-      <c r="K13" s="30" t="s">
+      <c r="J13" s="52"/>
+      <c r="K13" s="27" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="52" t="s">
+      <c r="C14" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="56" t="s">
+      <c r="D14" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="56"/>
-      <c r="F14" s="57" t="s">
+      <c r="E14" s="53"/>
+      <c r="F14" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="G14" s="55"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52" t="s">
+      <c r="G14" s="52"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="55"/>
+      <c r="J14" s="52"/>
     </row>
     <row r="15" spans="1:11" ht="25.5">
-      <c r="A15" s="55" t="s">
+      <c r="A15" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="52" t="s">
+      <c r="C15" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="D15" s="55" t="s">
+      <c r="D15" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="E15" s="55" t="s">
+      <c r="E15" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="52" t="s">
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="30" t="s">
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="27" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="75">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="53" t="s">
+      <c r="B16" s="54"/>
+      <c r="C16" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="D16" s="57" t="s">
+      <c r="D16" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="E16" s="56" t="s">
+      <c r="E16" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="F16" s="56" t="s">
+      <c r="F16" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="G16" s="56"/>
-      <c r="H16" s="57" t="s">
+      <c r="G16" s="53"/>
+      <c r="H16" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="I16" s="57" t="s">
+      <c r="I16" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="J16" s="56"/>
-      <c r="K16" s="58" t="s">
+      <c r="J16" s="53"/>
+      <c r="K16" s="55" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="25.5">
-      <c r="A17" s="52" t="s">
+      <c r="A17" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="52"/>
-      <c r="C17" s="52" t="s">
+      <c r="B17" s="49"/>
+      <c r="C17" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="52" t="s">
+      <c r="D17" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="52" t="s">
+      <c r="E17" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="52" t="s">
+      <c r="F17" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="G17" s="52"/>
-      <c r="H17" s="59" t="s">
+      <c r="G17" s="49"/>
+      <c r="H17" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="I17" s="59" t="s">
+      <c r="I17" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="J17" s="52"/>
-      <c r="K17" s="60" t="s">
+      <c r="J17" s="49"/>
+      <c r="K17" s="57" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75">
-      <c r="A20" s="61" t="s">
+      <c r="A20" s="58" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="62" t="s">
+      <c r="A21" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="B21" s="63" t="s">
+      <c r="B21" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="C21" s="64" t="s">
+      <c r="C21" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="B22" s="71" t="s">
+      <c r="B22" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="C22" s="67" t="s">
+      <c r="C22" s="64" t="s">
         <v>138</v>
       </c>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="65" t="s">
+      <c r="A23" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="B23" s="71" t="s">
+      <c r="B23" s="68" t="s">
         <v>139</v>
       </c>
-      <c r="C23" s="67" t="s">
+      <c r="C23" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
     </row>
     <row r="24" spans="1:11" ht="30">
-      <c r="A24" s="65" t="s">
+      <c r="A24" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="B24" s="66" t="s">
+      <c r="B24" s="63" t="s">
         <v>141</v>
       </c>
-      <c r="C24" s="67" t="s">
+      <c r="C24" s="64" t="s">
         <v>144</v>
       </c>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="65" t="s">
+      <c r="A25" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="B25" s="66" t="s">
+      <c r="B25" s="63" t="s">
         <v>142</v>
       </c>
-      <c r="C25" s="67" t="s">
+      <c r="C25" s="64" t="s">
         <v>143</v>
       </c>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
     </row>
     <row r="26" spans="1:11" ht="60">
-      <c r="A26" s="65" t="s">
+      <c r="A26" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="B26" s="66" t="s">
+      <c r="B26" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="67" t="s">
+      <c r="C26" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/fuentes/contenidos/grado10/guion02/SolicitudGrafica_CS_10_02_CO.xlsx
+++ b/fuentes/contenidos/grado10/guion02/SolicitudGrafica_CS_10_02_CO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zambanitos\Documents\MABEL\TRABAJO\PLANETA\REINGENIERIA_AGOSTO\CUADERNOS DE ESTUDIO\guion02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zambanitos\Documents\GitHub\CienciasSociales\fuentes\contenidos\grado10\guion02\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="hX79YNGfHMUCcosWMoH0GQuhNo2gkebFrfW3do2TOcvwqaujU9m0uwOL5UkRtWEspAy/ISD2JB8+jf057W9mVA==" workbookSaltValue="uRz/CDpmZ5ecKheoN1C0Jw==" workbookSpinCount="100000" lockStructure="1"/>
@@ -1810,6 +1810,18 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="51" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="51"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1908,18 +1920,6 @@
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="51" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="51"/>
   </cellXfs>
   <cellStyles count="52">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
@@ -2757,7 +2757,7 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E10" sqref="E10:E50"/>
     </sheetView>
@@ -2805,14 +2805,14 @@
       <c r="B2" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="84"/>
-      <c r="F2" s="76" t="s">
+      <c r="D2" s="89"/>
+      <c r="F2" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="77"/>
+      <c r="G2" s="82"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="14"/>
@@ -2836,14 +2836,14 @@
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="85">
+      <c r="C3" s="90">
         <v>10</v>
       </c>
-      <c r="D3" s="86"/>
-      <c r="F3" s="78">
+      <c r="D3" s="91"/>
+      <c r="F3" s="83">
         <v>42245</v>
       </c>
-      <c r="G3" s="79"/>
+      <c r="G3" s="84"/>
       <c r="H3" s="58"/>
       <c r="I3" s="38"/>
       <c r="J3" s="14"/>
@@ -2867,10 +2867,10 @@
       <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="90" t="s">
         <v>187</v>
       </c>
-      <c r="D4" s="86"/>
+      <c r="D4" s="91"/>
       <c r="E4" s="5"/>
       <c r="F4" s="37" t="s">
         <v>55</v>
@@ -2899,10 +2899,10 @@
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="87" t="s">
+      <c r="C5" s="92" t="s">
         <v>188</v>
       </c>
-      <c r="D5" s="88"/>
+      <c r="D5" s="93"/>
       <c r="E5" s="5"/>
       <c r="F5" s="37" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
@@ -2984,12 +2984,12 @@
       <c r="C8" s="9"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="80" t="s">
+      <c r="F8" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="82"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="87"/>
       <c r="J8" s="16"/>
       <c r="K8" s="11"/>
       <c r="M8" s="2" t="str">
@@ -3050,7 +3050,7 @@
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),"IMG01","")</f>
         <v>IMG01</v>
       </c>
-      <c r="B10" s="107" t="s">
+      <c r="B10" s="76" t="s">
         <v>191</v>
       </c>
       <c r="C10" s="20" t="str">
@@ -3079,7 +3079,7 @@
         <f ca="1">IF(OR($B10&lt;&gt;"",$J10&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J10" s="107" t="s">
+      <c r="J10" s="76" t="s">
         <v>192</v>
       </c>
       <c r="K10" s="64"/>
@@ -3093,7 +3093,7 @@
         <f t="shared" ref="A11:A18" si="3">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE(LEFT(A10,3),IF(MID(A10,4,2)+1&lt;10,CONCATENATE("0",MID(A10,4,2)+1))),"")</f>
         <v>IMG02</v>
       </c>
-      <c r="B11" s="107" t="s">
+      <c r="B11" s="76" t="s">
         <v>193</v>
       </c>
       <c r="C11" s="20" t="str">
@@ -3122,7 +3122,7 @@
         <f ca="1">IF(OR($B11&lt;&gt;"",$J11&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J11" s="107" t="s">
+      <c r="J11" s="76" t="s">
         <v>194</v>
       </c>
       <c r="K11" s="65"/>
@@ -3136,7 +3136,7 @@
         <f t="shared" si="3"/>
         <v>IMG03</v>
       </c>
-      <c r="B12" s="107" t="s">
+      <c r="B12" s="76" t="s">
         <v>195</v>
       </c>
       <c r="C12" s="20" t="str">
@@ -3165,7 +3165,7 @@
         <f ca="1">IF(OR($B12&lt;&gt;"",$J12&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J12" s="107" t="s">
+      <c r="J12" s="76" t="s">
         <v>196</v>
       </c>
       <c r="K12" s="64"/>
@@ -3179,7 +3179,7 @@
         <f t="shared" si="3"/>
         <v>IMG04</v>
       </c>
-      <c r="B13" s="108" t="s">
+      <c r="B13" s="77" t="s">
         <v>197</v>
       </c>
       <c r="C13" s="20" t="str">
@@ -3224,7 +3224,7 @@
         <f t="shared" si="3"/>
         <v>IMG05</v>
       </c>
-      <c r="B14" s="107" t="s">
+      <c r="B14" s="76" t="s">
         <v>200</v>
       </c>
       <c r="C14" s="20" t="str">
@@ -3267,7 +3267,7 @@
         <f t="shared" si="3"/>
         <v>IMG06</v>
       </c>
-      <c r="B15" s="107" t="s">
+      <c r="B15" s="76" t="s">
         <v>202</v>
       </c>
       <c r="C15" s="20" t="str">
@@ -3296,7 +3296,7 @@
         <f ca="1">IF(OR($B15&lt;&gt;"",$J15&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J15" s="107" t="s">
+      <c r="J15" s="76" t="s">
         <v>203</v>
       </c>
       <c r="K15" s="66"/>
@@ -3310,7 +3310,7 @@
         <f t="shared" si="3"/>
         <v>IMG07</v>
       </c>
-      <c r="B16" s="107" t="s">
+      <c r="B16" s="76" t="s">
         <v>204</v>
       </c>
       <c r="C16" s="20" t="str">
@@ -3353,7 +3353,7 @@
         <f t="shared" si="3"/>
         <v>IMG08</v>
       </c>
-      <c r="B17" s="107" t="s">
+      <c r="B17" s="76" t="s">
         <v>206</v>
       </c>
       <c r="C17" s="20" t="str">
@@ -3382,7 +3382,7 @@
         <f ca="1">IF(OR($B17&lt;&gt;"",$J17&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E17,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E17,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J17" s="107" t="s">
+      <c r="J17" s="76" t="s">
         <v>207</v>
       </c>
       <c r="K17" s="66"/>
@@ -3396,7 +3396,7 @@
         <f t="shared" si="3"/>
         <v>IMG09</v>
       </c>
-      <c r="B18" s="107" t="s">
+      <c r="B18" s="76" t="s">
         <v>208</v>
       </c>
       <c r="C18" s="20" t="str">
@@ -3439,7 +3439,7 @@
         <f t="shared" ref="A19:A50" si="6">IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),CONCATENATE(LEFT(A18,3),IF(MID(A18,4,2)+1&lt;10,CONCATENATE("0",MID(A18,4,2)+1),MID(A18,4,2)+1)),"")</f>
         <v>IMG10</v>
       </c>
-      <c r="B19" s="107" t="s">
+      <c r="B19" s="76" t="s">
         <v>210</v>
       </c>
       <c r="C19" s="20" t="str">
@@ -3468,7 +3468,7 @@
         <f ca="1">IF(OR($B19&lt;&gt;"",$J19&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E19,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E19,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J19" s="107" t="s">
+      <c r="J19" s="76" t="s">
         <v>211</v>
       </c>
       <c r="K19" s="68"/>
@@ -3482,7 +3482,7 @@
         <f t="shared" si="6"/>
         <v>IMG11</v>
       </c>
-      <c r="B20" s="107" t="s">
+      <c r="B20" s="76" t="s">
         <v>212</v>
       </c>
       <c r="C20" s="20" t="str">
@@ -3511,7 +3511,7 @@
         <f ca="1">IF(OR($B20&lt;&gt;"",$J20&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E20,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E20,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J20" s="107" t="s">
+      <c r="J20" s="76" t="s">
         <v>213</v>
       </c>
       <c r="K20" s="66"/>
@@ -3525,7 +3525,7 @@
         <f>IF(OR(B21&lt;&gt;"",K21&lt;&gt;""),CONCATENATE(LEFT(A20,3),IF(MID(A20,4,2)+1&lt;10,CONCATENATE("0",MID(A20,4,2)+1),MID(A20,4,2)+1)),"")</f>
         <v>IMG12</v>
       </c>
-      <c r="B21" s="109" t="s">
+      <c r="B21" s="78" t="s">
         <v>214</v>
       </c>
       <c r="C21" s="20" t="str">
@@ -3554,7 +3554,7 @@
         <f ca="1">IF(OR($B21&lt;&gt;"",$K21&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E21,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E21,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J21" s="110" t="s">
+      <c r="J21" s="79" t="s">
         <v>216</v>
       </c>
       <c r="K21" s="66" t="s">
@@ -3570,7 +3570,7 @@
         <f t="shared" si="6"/>
         <v>IMG13</v>
       </c>
-      <c r="B22" s="107" t="s">
+      <c r="B22" s="76" t="s">
         <v>217</v>
       </c>
       <c r="C22" s="20" t="str">
@@ -3599,7 +3599,7 @@
         <f ca="1">IF(OR($B22&lt;&gt;"",$J22&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E22,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E22,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J22" s="107" t="s">
+      <c r="J22" s="76" t="s">
         <v>218</v>
       </c>
       <c r="K22" s="69"/>
@@ -3613,7 +3613,7 @@
         <f t="shared" si="6"/>
         <v>IMG14</v>
       </c>
-      <c r="B23" s="107" t="s">
+      <c r="B23" s="76" t="s">
         <v>219</v>
       </c>
       <c r="C23" s="20" t="str">
@@ -3642,7 +3642,7 @@
         <f ca="1">IF(OR($B23&lt;&gt;"",$J23&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E23,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E23,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J23" s="107" t="s">
+      <c r="J23" s="76" t="s">
         <v>220</v>
       </c>
       <c r="K23" s="64"/>
@@ -3656,7 +3656,7 @@
         <f t="shared" si="6"/>
         <v>IMG15</v>
       </c>
-      <c r="B24" s="107" t="s">
+      <c r="B24" s="76" t="s">
         <v>221</v>
       </c>
       <c r="C24" s="20" t="str">
@@ -3685,7 +3685,7 @@
         <f ca="1">IF(OR($B24&lt;&gt;"",$J24&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E24,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E24,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J24" s="107" t="s">
+      <c r="J24" s="76" t="s">
         <v>222</v>
       </c>
       <c r="K24" s="65"/>
@@ -3699,7 +3699,7 @@
         <f t="shared" si="6"/>
         <v>IMG16</v>
       </c>
-      <c r="B25" s="107" t="s">
+      <c r="B25" s="76" t="s">
         <v>219</v>
       </c>
       <c r="C25" s="20" t="str">
@@ -3738,7 +3738,7 @@
         <f t="shared" si="6"/>
         <v>IMG17</v>
       </c>
-      <c r="B26" s="107" t="s">
+      <c r="B26" s="76" t="s">
         <v>224</v>
       </c>
       <c r="C26" s="20" t="str">
@@ -3767,7 +3767,7 @@
         <f ca="1">IF(OR($B26&lt;&gt;"",$J26&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E26,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E26,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J26" s="107" t="s">
+      <c r="J26" s="76" t="s">
         <v>225</v>
       </c>
       <c r="K26" s="64"/>
@@ -3777,7 +3777,7 @@
         <f t="shared" si="6"/>
         <v>IMG18</v>
       </c>
-      <c r="B27" s="107" t="s">
+      <c r="B27" s="76" t="s">
         <v>226</v>
       </c>
       <c r="C27" s="20" t="str">
@@ -3806,7 +3806,7 @@
         <f ca="1">IF(OR($B27&lt;&gt;"",$J27&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E27,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E27,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J27" s="107" t="s">
+      <c r="J27" s="76" t="s">
         <v>227</v>
       </c>
       <c r="K27" s="64"/>
@@ -3817,7 +3817,7 @@
         <f t="shared" si="6"/>
         <v>IMG19</v>
       </c>
-      <c r="B28" s="108" t="s">
+      <c r="B28" s="77" t="s">
         <v>228</v>
       </c>
       <c r="C28" s="20" t="str">
@@ -3858,7 +3858,7 @@
         <f t="shared" si="6"/>
         <v>IMG20</v>
       </c>
-      <c r="B29" s="107" t="s">
+      <c r="B29" s="76" t="s">
         <v>231</v>
       </c>
       <c r="C29" s="20" t="str">
@@ -3887,7 +3887,7 @@
         <f ca="1">IF(OR($B29&lt;&gt;"",$J29&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E29,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E29,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J29" s="107" t="s">
+      <c r="J29" s="76" t="s">
         <v>232</v>
       </c>
       <c r="K29" s="64"/>
@@ -3897,7 +3897,7 @@
         <f t="shared" si="6"/>
         <v>IMG21</v>
       </c>
-      <c r="B30" s="107" t="s">
+      <c r="B30" s="76" t="s">
         <v>233</v>
       </c>
       <c r="C30" s="20" t="str">
@@ -3926,7 +3926,7 @@
         <f ca="1">IF(OR($B30&lt;&gt;"",$J30&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E30,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E30,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J30" s="107" t="s">
+      <c r="J30" s="76" t="s">
         <v>234</v>
       </c>
       <c r="K30" s="64"/>
@@ -3936,7 +3936,7 @@
         <f t="shared" si="6"/>
         <v>IMG22</v>
       </c>
-      <c r="B31" s="111" t="s">
+      <c r="B31" s="80" t="s">
         <v>235</v>
       </c>
       <c r="C31" s="20" t="str">
@@ -3965,7 +3965,7 @@
         <f ca="1">IF(OR($B31&lt;&gt;"",$J31&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E31,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E31,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J31" s="107" t="s">
+      <c r="J31" s="76" t="s">
         <v>236</v>
       </c>
       <c r="K31" s="64" t="s">
@@ -3977,7 +3977,7 @@
         <f t="shared" si="6"/>
         <v>IMG23</v>
       </c>
-      <c r="B32" s="107" t="s">
+      <c r="B32" s="76" t="s">
         <v>238</v>
       </c>
       <c r="C32" s="20" t="str">
@@ -4006,7 +4006,7 @@
         <f ca="1">IF(OR($B32&lt;&gt;"",$J32&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E32,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E32,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J32" s="107" t="s">
+      <c r="J32" s="76" t="s">
         <v>239</v>
       </c>
       <c r="K32" s="64"/>
@@ -4016,7 +4016,7 @@
         <f t="shared" si="6"/>
         <v>IMG24</v>
       </c>
-      <c r="B33" s="107" t="s">
+      <c r="B33" s="76" t="s">
         <v>240</v>
       </c>
       <c r="C33" s="20" t="str">
@@ -4045,7 +4045,7 @@
         <f ca="1">IF(OR($B33&lt;&gt;"",$J33&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E33,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E33,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J33" s="107" t="s">
+      <c r="J33" s="76" t="s">
         <v>241</v>
       </c>
       <c r="K33" s="64"/>
@@ -4055,7 +4055,7 @@
         <f t="shared" si="6"/>
         <v>IMG25</v>
       </c>
-      <c r="B34" s="107" t="s">
+      <c r="B34" s="76" t="s">
         <v>242</v>
       </c>
       <c r="C34" s="20" t="str">
@@ -4084,7 +4084,7 @@
         <f ca="1">IF(OR($B34&lt;&gt;"",$J34&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E34,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E34,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J34" s="107" t="s">
+      <c r="J34" s="76" t="s">
         <v>243</v>
       </c>
       <c r="K34" s="64"/>
@@ -4095,7 +4095,7 @@
         <f t="shared" si="6"/>
         <v>IMG26</v>
       </c>
-      <c r="B35" s="107" t="s">
+      <c r="B35" s="76" t="s">
         <v>244</v>
       </c>
       <c r="C35" s="20" t="str">
@@ -4124,7 +4124,7 @@
         <f ca="1">IF(OR($B35&lt;&gt;"",$J35&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E35,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E35,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J35" s="107" t="s">
+      <c r="J35" s="76" t="s">
         <v>245</v>
       </c>
       <c r="K35" s="65"/>
@@ -4135,7 +4135,7 @@
         <f t="shared" si="6"/>
         <v>IMG27</v>
       </c>
-      <c r="B36" s="107" t="s">
+      <c r="B36" s="76" t="s">
         <v>246</v>
       </c>
       <c r="C36" s="20" t="str">
@@ -4164,7 +4164,7 @@
         <f ca="1">IF(OR($B36&lt;&gt;"",$J36&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E36,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E36,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J36" s="107" t="s">
+      <c r="J36" s="76" t="s">
         <v>247</v>
       </c>
       <c r="K36" s="65"/>
@@ -4175,7 +4175,7 @@
         <f t="shared" si="6"/>
         <v>IMG28</v>
       </c>
-      <c r="B37" s="107" t="s">
+      <c r="B37" s="76" t="s">
         <v>248</v>
       </c>
       <c r="C37" s="20" t="str">
@@ -4204,7 +4204,7 @@
         <f ca="1">IF(OR($B37&lt;&gt;"",$J37&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E37,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E37,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J37" s="107" t="s">
+      <c r="J37" s="76" t="s">
         <v>249</v>
       </c>
       <c r="K37" s="65"/>
@@ -4214,7 +4214,7 @@
         <f t="shared" si="6"/>
         <v>IMG29</v>
       </c>
-      <c r="B38" s="107" t="s">
+      <c r="B38" s="76" t="s">
         <v>250</v>
       </c>
       <c r="C38" s="20" t="str">
@@ -4243,7 +4243,7 @@
         <f ca="1">IF(OR($B38&lt;&gt;"",$J38&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E38,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E38,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J38" s="107" t="s">
+      <c r="J38" s="76" t="s">
         <v>251</v>
       </c>
       <c r="K38" s="65"/>
@@ -4253,7 +4253,7 @@
         <f t="shared" si="6"/>
         <v>IMG30</v>
       </c>
-      <c r="B39" s="107" t="s">
+      <c r="B39" s="76" t="s">
         <v>252</v>
       </c>
       <c r="C39" s="20" t="str">
@@ -4282,7 +4282,7 @@
         <f ca="1">IF(OR($B39&lt;&gt;"",$J39&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E39,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E39,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J39" s="107" t="s">
+      <c r="J39" s="76" t="s">
         <v>253</v>
       </c>
       <c r="K39" s="65"/>
@@ -4292,7 +4292,7 @@
         <f t="shared" si="6"/>
         <v>IMG31</v>
       </c>
-      <c r="B40" s="107" t="s">
+      <c r="B40" s="76" t="s">
         <v>254</v>
       </c>
       <c r="C40" s="20" t="str">
@@ -4331,7 +4331,7 @@
         <f t="shared" si="6"/>
         <v>IMG32</v>
       </c>
-      <c r="B41" s="107" t="s">
+      <c r="B41" s="76" t="s">
         <v>256</v>
       </c>
       <c r="C41" s="20" t="str">
@@ -4360,7 +4360,7 @@
         <f ca="1">IF(OR($B41&lt;&gt;"",$J41&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E41,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E41,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J41" s="107" t="s">
+      <c r="J41" s="76" t="s">
         <v>257</v>
       </c>
       <c r="K41" s="65"/>
@@ -4370,7 +4370,7 @@
         <f t="shared" si="6"/>
         <v>IMG33</v>
       </c>
-      <c r="B42" s="108" t="s">
+      <c r="B42" s="77" t="s">
         <v>258</v>
       </c>
       <c r="C42" s="20" t="str">
@@ -4399,7 +4399,7 @@
         <f ca="1">IF(OR($B42&lt;&gt;"",$J42&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E42,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E42,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J42" s="107" t="s">
+      <c r="J42" s="76" t="s">
         <v>259</v>
       </c>
       <c r="K42" s="65" t="s">
@@ -4411,7 +4411,7 @@
         <f t="shared" si="6"/>
         <v>IMG34</v>
       </c>
-      <c r="B43" s="107" t="s">
+      <c r="B43" s="76" t="s">
         <v>261</v>
       </c>
       <c r="C43" s="20" t="str">
@@ -4450,7 +4450,7 @@
         <f t="shared" si="6"/>
         <v>IMG35</v>
       </c>
-      <c r="B44" s="107" t="s">
+      <c r="B44" s="76" t="s">
         <v>263</v>
       </c>
       <c r="C44" s="20" t="str">
@@ -4479,7 +4479,7 @@
         <f ca="1">IF(OR($B44&lt;&gt;"",$J44&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E44,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E44,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J44" s="107" t="s">
+      <c r="J44" s="76" t="s">
         <v>264</v>
       </c>
       <c r="K44" s="65"/>
@@ -4489,7 +4489,7 @@
         <f t="shared" si="6"/>
         <v>IMG36</v>
       </c>
-      <c r="B45" s="107" t="s">
+      <c r="B45" s="76" t="s">
         <v>265</v>
       </c>
       <c r="C45" s="20" t="str">
@@ -4518,7 +4518,7 @@
         <f ca="1">IF(OR($B45&lt;&gt;"",$J45&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E45,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E45,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J45" s="107" t="s">
+      <c r="J45" s="76" t="s">
         <v>266</v>
       </c>
       <c r="K45" s="65"/>
@@ -4528,7 +4528,7 @@
         <f t="shared" si="6"/>
         <v>IMG37</v>
       </c>
-      <c r="B46" s="107" t="s">
+      <c r="B46" s="76" t="s">
         <v>267</v>
       </c>
       <c r="C46" s="20" t="str">
@@ -4557,7 +4557,7 @@
         <f ca="1">IF(OR($B46&lt;&gt;"",$J46&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E46,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E46,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J46" s="107" t="s">
+      <c r="J46" s="76" t="s">
         <v>268</v>
       </c>
       <c r="K46" s="65"/>
@@ -4567,7 +4567,7 @@
         <f t="shared" si="6"/>
         <v>IMG38</v>
       </c>
-      <c r="B47" s="107" t="s">
+      <c r="B47" s="76" t="s">
         <v>269</v>
       </c>
       <c r="C47" s="20" t="str">
@@ -4596,7 +4596,7 @@
         <f ca="1">IF(OR($B47&lt;&gt;"",$J47&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E47,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E47,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J47" s="107" t="s">
+      <c r="J47" s="76" t="s">
         <v>270</v>
       </c>
       <c r="K47" s="65"/>
@@ -4606,7 +4606,7 @@
         <f t="shared" si="6"/>
         <v>IMG39</v>
       </c>
-      <c r="B48" s="107" t="s">
+      <c r="B48" s="76" t="s">
         <v>271</v>
       </c>
       <c r="C48" s="20" t="str">
@@ -4635,7 +4635,7 @@
         <f ca="1">IF(OR($B48&lt;&gt;"",$J48&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E48,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E48,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J48" s="107" t="s">
+      <c r="J48" s="76" t="s">
         <v>272</v>
       </c>
       <c r="K48" s="65"/>
@@ -4645,7 +4645,7 @@
         <f t="shared" si="6"/>
         <v>IMG40</v>
       </c>
-      <c r="B49" s="107" t="s">
+      <c r="B49" s="76" t="s">
         <v>273</v>
       </c>
       <c r="C49" s="20" t="str">
@@ -4674,7 +4674,7 @@
         <f ca="1">IF(OR($B49&lt;&gt;"",$J49&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E49,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E49,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J49" s="107" t="s">
+      <c r="J49" s="76" t="s">
         <v>274</v>
       </c>
       <c r="K49" s="65"/>
@@ -4684,7 +4684,7 @@
         <f t="shared" si="6"/>
         <v>IMG41</v>
       </c>
-      <c r="B50" s="107" t="s">
+      <c r="B50" s="76" t="s">
         <v>275</v>
       </c>
       <c r="C50" s="20" t="str">
@@ -4713,7 +4713,7 @@
         <f ca="1">IF(OR($B50&lt;&gt;"",$J50&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E50,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E50,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J50" s="107" t="s">
+      <c r="J50" s="76" t="s">
         <v>276</v>
       </c>
       <c r="K50" s="65"/>
@@ -6588,25 +6588,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="93"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="98"/>
     </row>
     <row r="2" spans="1:11" ht="15.75">
       <c r="A2" s="30" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="31"/>
-      <c r="C2" s="94" t="s">
+      <c r="C2" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="101"/>
       <c r="F2" s="32"/>
     </row>
     <row r="3" spans="1:11" ht="60">
@@ -6614,11 +6614,11 @@
         <v>43</v>
       </c>
       <c r="B3" s="31"/>
-      <c r="C3" s="100" t="s">
+      <c r="C3" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="101"/>
-      <c r="E3" s="102"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="107"/>
       <c r="F3" s="32"/>
       <c r="H3" s="22" t="s">
         <v>18</v>
@@ -6669,11 +6669,11 @@
       <c r="C5" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="103" t="str">
+      <c r="D5" s="108" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>LE_07_04_CO</v>
       </c>
-      <c r="E5" s="104"/>
+      <c r="E5" s="109"/>
       <c r="F5" s="32"/>
       <c r="H5" s="22" t="s">
         <v>22</v>
@@ -6718,12 +6718,12 @@
       <c r="C7" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="89" t="str">
+      <c r="D7" s="94" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_CO.xls</v>
       </c>
-      <c r="E7" s="89"/>
-      <c r="F7" s="90"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="95"/>
       <c r="H7" s="22" t="s">
         <v>24</v>
       </c>
@@ -6817,14 +6817,14 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75">
-      <c r="A13" s="91" t="s">
+      <c r="A13" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="92"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="93"/>
+      <c r="B13" s="97"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="98"/>
       <c r="I13" s="22" t="s">
         <v>33</v>
       </c>
@@ -6857,12 +6857,12 @@
         <v>46</v>
       </c>
       <c r="B15" s="31"/>
-      <c r="C15" s="94" t="s">
+      <c r="C15" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="96"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="101"/>
       <c r="J15" s="22">
         <v>12</v>
       </c>
@@ -6902,12 +6902,12 @@
       <c r="C17" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="97" t="str">
+      <c r="D17" s="102" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>LE_07_04_REC10</v>
       </c>
-      <c r="E17" s="98"/>
-      <c r="F17" s="99"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="104"/>
       <c r="J17" s="22">
         <v>14</v>
       </c>
@@ -6923,12 +6923,12 @@
       <c r="C18" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="D18" s="89" t="str">
+      <c r="D18" s="94" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_REC10.xls</v>
       </c>
-      <c r="E18" s="89"/>
-      <c r="F18" s="90"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="95"/>
       <c r="J18" s="22">
         <v>15</v>
       </c>
@@ -7319,40 +7319,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="111" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="111" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="106" t="s">
+      <c r="C1" s="111" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="106" t="s">
+      <c r="D1" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="106" t="s">
+      <c r="E1" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="106" t="s">
+      <c r="F1" s="111" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="106" t="s">
+      <c r="G1" s="111" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="105" t="s">
+      <c r="H1" s="110" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="105"/>
+      <c r="I1" s="110"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="106"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
       <c r="H2" s="39" t="s">
         <v>65</v>
       </c>
